--- a/scenarios-examples/cement/data/units/var_cement.xlsx
+++ b/scenarios-examples/cement/data/units/var_cement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wajju/GitHub/BlackBlox/scenarios-examples/cement/data/units/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8D1925-A1E7-4E41-AA28-9E4F38EC8977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA42BA1-22A1-3241-833F-47F7CCF1805D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16720" yWindow="1000" windowWidth="21680" windowHeight="17540" tabRatio="598" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13860" yWindow="1440" windowWidth="21680" windowHeight="17540" tabRatio="598" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cement_meal" sheetId="25" r:id="rId1"/>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M9" authorId="0" shapeId="0" xr:uid="{D2EBFBB0-7EF6-434E-9FB4-00E2A70DBE04}">
+    <comment ref="M6" authorId="0" shapeId="0" xr:uid="{D2EBFBB0-7EF6-434E-9FB4-00E2A70DBE04}">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M10" authorId="0" shapeId="0" xr:uid="{1DB11D49-F828-CD4D-87D5-BFB9BE0001C2}">
+    <comment ref="M7" authorId="0" shapeId="0" xr:uid="{1DB11D49-F828-CD4D-87D5-BFB9BE0001C2}">
       <text>
         <r>
           <rPr>
@@ -192,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="168">
   <si>
     <t>meta-notes</t>
   </si>
@@ -386,33 +386,15 @@
     <t>meta-source</t>
   </si>
   <si>
-    <t>30MPA</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.tws.2014.02.022</t>
-  </si>
-  <si>
-    <t>CCURE-30MPA-CO2</t>
-  </si>
-  <si>
-    <t>CCURE-30MPA</t>
-  </si>
-  <si>
     <t>density</t>
   </si>
   <si>
     <t>t/m3</t>
   </si>
   <si>
-    <t xml:space="preserve">http://dx.doi.org/10.1016/j.jclepro.2017.08.194 </t>
-  </si>
-  <si>
     <t>slag-ash use</t>
   </si>
   <si>
-    <t>portland</t>
-  </si>
-  <si>
     <t>BASE</t>
   </si>
   <si>
@@ -467,9 +449,6 @@
     <t>t CO2 / t cement</t>
   </si>
   <si>
-    <t>ecoinvent_30-32MpA</t>
-  </si>
-  <si>
     <t>km (for materials)</t>
   </si>
   <si>
@@ -714,6 +693,9 @@
   </si>
   <si>
     <t>COAL</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
@@ -726,7 +708,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -805,27 +787,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="AdvOT863180fb"/>
     </font>
     <font>
       <sz val="11"/>
@@ -932,14 +893,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -969,18 +929,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1006,7 +961,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1021,12 +976,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Per cent" xfId="4" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1304,22 +1258,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="8" max="8" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>26</v>
       </c>
@@ -1348,10 +1302,10 @@
         <v>1</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>24</v>
       </c>
@@ -1372,7 +1326,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
@@ -1384,9 +1338,9 @@
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="B4">
         <v>0.77400000000000002</v>
@@ -1418,9 +1372,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="B5">
         <v>0.77400000000000002</v>
@@ -1445,16 +1399,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <f>23*Ref!$B$18</f>
-        <v>8.2799999999999999E-2</v>
+        <f>12*Ref!$B$18</f>
+        <v>4.3200000000000002E-2</v>
       </c>
       <c r="J5">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B6">
         <v>0.77400000000000002</v>
@@ -1486,15 +1440,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>119</v>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>111</v>
       </c>
       <c r="B7">
         <v>0.77400000000000002</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C8" si="0">1-SUM(B7, D7:G7)</f>
+        <f>1-SUM(B7, D7:G7)</f>
         <v>3.4699999999999953E-2</v>
       </c>
       <c r="D7">
@@ -1520,15 +1474,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B8">
         <v>0.77400000000000002</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C8:C9" si="0">1-SUM(B8, D8:G8)</f>
         <v>3.4699999999999953E-2</v>
       </c>
       <c r="D8">
@@ -1554,15 +1508,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="26" customFormat="1">
-      <c r="A9" s="19" t="s">
-        <v>104</v>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>113</v>
       </c>
       <c r="B9">
         <v>0.77400000000000002</v>
       </c>
       <c r="C9">
-        <f>1-SUM(B9, D9:G9)</f>
+        <f t="shared" si="0"/>
         <v>3.4699999999999953E-2</v>
       </c>
       <c r="D9">
@@ -1581,22 +1535,22 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <f>12*Ref!$B$18</f>
-        <v>4.3200000000000002E-2</v>
+        <f>23*Ref!$B$18</f>
+        <v>8.2799999999999999E-2</v>
       </c>
       <c r="J9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="26" customFormat="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B10">
         <v>0.77400000000000002</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10" si="1">1-SUM(B10, D10:G10)</f>
+        <f>1-SUM(B10, D10:G10)</f>
         <v>3.4699999999999953E-2</v>
       </c>
       <c r="D10">
@@ -1622,15 +1576,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="26" customFormat="1">
-      <c r="A11" t="s">
-        <v>121</v>
+    <row r="11" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="B11">
         <v>0.77400000000000002</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C14" si="2">1-SUM(B11, D11:G11)</f>
+        <f t="shared" ref="C11" si="1">1-SUM(B11, D11:G11)</f>
         <v>3.4699999999999953E-2</v>
       </c>
       <c r="D11">
@@ -1656,15 +1610,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="26" customFormat="1">
+    <row r="12" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B12">
         <v>0.77400000000000002</v>
       </c>
       <c r="C12">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C12:C15" si="2">1-SUM(B12, D12:G12)</f>
         <v>3.4699999999999953E-2</v>
       </c>
       <c r="D12">
@@ -1690,9 +1644,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="26" customFormat="1">
+    <row r="13" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B13">
         <v>0.77400000000000002</v>
@@ -1724,9 +1678,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B14">
         <v>0.77400000000000002</v>
@@ -1758,15 +1712,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="19" t="s">
-        <v>135</v>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>117</v>
       </c>
       <c r="B15">
         <v>0.77400000000000002</v>
       </c>
       <c r="C15">
-        <f>1-SUM(B15, D15:G15)</f>
+        <f t="shared" si="2"/>
         <v>3.4699999999999953E-2</v>
       </c>
       <c r="D15">
@@ -1788,19 +1742,19 @@
         <f>12*Ref!$B$18</f>
         <v>4.3200000000000002E-2</v>
       </c>
-      <c r="J15" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="J15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B16">
         <v>0.77400000000000002</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:C20" si="3">1-SUM(B16, D16:G16)</f>
+        <f>1-SUM(B16, D16:G16)</f>
         <v>3.4699999999999953E-2</v>
       </c>
       <c r="D16">
@@ -1826,15 +1780,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>137</v>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>129</v>
       </c>
       <c r="B17">
         <v>0.77400000000000002</v>
       </c>
       <c r="C17">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C17:C21" si="3">1-SUM(B17, D17:G17)</f>
         <v>3.4699999999999953E-2</v>
       </c>
       <c r="D17">
@@ -1860,9 +1814,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B18">
         <v>0.77400000000000002</v>
@@ -1894,9 +1848,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B19">
         <v>0.77400000000000002</v>
@@ -1928,9 +1882,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B20">
         <v>0.77400000000000002</v>
@@ -1962,15 +1916,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B21">
         <v>0.77400000000000002</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:C22" si="4">1-SUM(B21, D21:G21)</f>
+        <f t="shared" si="3"/>
         <v>3.4699999999999953E-2</v>
       </c>
       <c r="D21">
@@ -1996,15 +1950,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B22">
         <v>0.77400000000000002</v>
       </c>
       <c r="C22">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="C22:C23" si="4">1-SUM(B22, D22:G22)</f>
         <v>3.4699999999999953E-2</v>
       </c>
       <c r="D22">
@@ -2030,15 +1984,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B23">
         <v>0.77400000000000002</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:C24" si="5">1-SUM(B23, D23:G23)</f>
+        <f t="shared" si="4"/>
         <v>3.4699999999999953E-2</v>
       </c>
       <c r="D23">
@@ -2064,15 +2018,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B24">
         <v>0.77400000000000002</v>
       </c>
       <c r="C24">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="C24:C25" si="5">1-SUM(B24, D24:G24)</f>
         <v>3.4699999999999953E-2</v>
       </c>
       <c r="D24">
@@ -2098,15 +2052,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B25">
         <v>0.77400000000000002</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25:C26" si="6">1-SUM(B25, D25:G25)</f>
+        <f t="shared" si="5"/>
         <v>3.4699999999999953E-2</v>
       </c>
       <c r="D25">
@@ -2132,15 +2086,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B26">
         <v>0.77400000000000002</v>
       </c>
       <c r="C26">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="C26:C27" si="6">1-SUM(B26, D26:G26)</f>
         <v>3.4699999999999953E-2</v>
       </c>
       <c r="D26">
@@ -2166,78 +2120,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>152</v>
-      </c>
-      <c r="B27" s="26">
+        <v>139</v>
+      </c>
+      <c r="B27">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="6"/>
+        <v>3.4699999999999953E-2</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="F27">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="G27">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f>12*Ref!$B$18</f>
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="J27" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="26">
         <v>0.745</v>
-      </c>
-      <c r="C27">
-        <f>1-B27</f>
-        <v>0.255</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
-        <v>155</v>
-      </c>
-      <c r="B28" s="26">
-        <v>0.77339999999999998</v>
       </c>
       <c r="C28">
         <f>1-B28</f>
+        <v>0.255</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="26">
+        <v>0.77339999999999998</v>
+      </c>
+      <c r="C29">
+        <f>1-B29</f>
         <v>0.22660000000000002</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" t="s">
-        <v>159</v>
-      </c>
-      <c r="B29">
-        <v>0.77400000000000002</v>
-      </c>
-      <c r="C29">
-        <f>1-SUM(B29, D29:G29)</f>
-        <v>3.4699999999999953E-2</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="F29">
-        <v>2.3199999999999998E-2</v>
-      </c>
-      <c r="G29">
-        <v>3.3099999999999997E-2</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="B30">
         <v>0.77400000000000002</v>
@@ -2262,16 +2217,15 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <f>12*Ref!$B$18</f>
-        <v>4.3200000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B31">
         <v>0.77400000000000002</v>
@@ -2300,6 +2254,40 @@
         <v>4.3200000000000002E-2</v>
       </c>
       <c r="J31">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="C32">
+        <f>1-SUM(B32, D32:G32)</f>
+        <v>3.4699999999999953E-2</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="F32">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="G32">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f>12*Ref!$B$18</f>
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="J32">
         <v>0</v>
       </c>
     </row>
@@ -2310,16 +2298,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A42" sqref="A42:A43"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
@@ -2328,86 +2316,86 @@
     <col min="5" max="5" width="9.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="35" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.83203125" customWidth="1"/>
     <col min="11" max="11" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="40" customFormat="1" ht="32">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:22" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="K1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-    </row>
-    <row r="2" spans="1:22" s="40" customFormat="1" ht="33" customHeight="1">
-      <c r="A2" s="51" t="s">
+      <c r="I1" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+    </row>
+    <row r="2" spans="1:22" s="35" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="L2" s="42"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="B3" s="26">
         <v>1.57</v>
@@ -2425,13 +2413,13 @@
         <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H3" s="41">
+        <v>92</v>
+      </c>
+      <c r="H3" s="36">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2441,9 +2429,9 @@
         <v>8.2799999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B4" s="26">
         <v>1.57</v>
@@ -2461,13 +2449,13 @@
         <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="41">
-        <v>1</v>
+        <v>92</v>
+      </c>
+      <c r="H4" s="36">
+        <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2477,9 +2465,9 @@
         <v>8.2799999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B5" s="26">
         <v>1.57</v>
@@ -2497,13 +2485,13 @@
         <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" s="41">
+        <v>92</v>
+      </c>
+      <c r="H5" s="36">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2513,9 +2501,9 @@
         <v>8.2799999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B6" s="26">
         <v>1.57</v>
@@ -2533,13 +2521,13 @@
         <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H6" s="41">
+        <v>92</v>
+      </c>
+      <c r="H6" s="36">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2549,9 +2537,9 @@
         <v>8.2799999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="31" t="s">
-        <v>101</v>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="B7" s="26">
         <v>1.57</v>
@@ -2569,13 +2557,13 @@
         <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H7" s="41">
+        <v>92</v>
+      </c>
+      <c r="H7" s="36">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2585,9 +2573,9 @@
         <v>8.2799999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="31" t="s">
-        <v>102</v>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
+        <v>94</v>
       </c>
       <c r="B8" s="26">
         <v>1.57</v>
@@ -2605,13 +2593,13 @@
         <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" s="41">
+        <v>92</v>
+      </c>
+      <c r="H8" s="36">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2621,9 +2609,9 @@
         <v>8.2799999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="31" t="s">
-        <v>130</v>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="B9" s="26">
         <v>1.57</v>
@@ -2641,13 +2629,13 @@
         <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" s="41">
+        <v>92</v>
+      </c>
+      <c r="H9" s="36">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2657,9 +2645,9 @@
         <v>8.2799999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="31" t="s">
-        <v>110</v>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
+        <v>123</v>
       </c>
       <c r="B10" s="26">
         <v>1.57</v>
@@ -2677,13 +2665,13 @@
         <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" s="41">
+        <v>92</v>
+      </c>
+      <c r="H10" s="36">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -2693,9 +2681,9 @@
         <v>8.2799999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="31" t="s">
-        <v>111</v>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
+        <v>103</v>
       </c>
       <c r="B11" s="26">
         <v>1.57</v>
@@ -2713,13 +2701,13 @@
         <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>99</v>
-      </c>
-      <c r="H11" s="41">
+        <v>92</v>
+      </c>
+      <c r="H11" s="36">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2729,9 +2717,9 @@
         <v>8.2799999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="31" t="s">
-        <v>112</v>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
+        <v>104</v>
       </c>
       <c r="B12" s="26">
         <v>1.57</v>
@@ -2749,13 +2737,13 @@
         <v>45</v>
       </c>
       <c r="G12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H12" s="41">
+        <v>92</v>
+      </c>
+      <c r="H12" s="36">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2765,9 +2753,9 @@
         <v>8.2799999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="31" t="s">
-        <v>132</v>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
+        <v>105</v>
       </c>
       <c r="B13" s="26">
         <v>1.57</v>
@@ -2785,13 +2773,13 @@
         <v>45</v>
       </c>
       <c r="G13" t="s">
-        <v>99</v>
-      </c>
-      <c r="H13" s="41">
+        <v>92</v>
+      </c>
+      <c r="H13" s="36">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2801,9 +2789,9 @@
         <v>8.2799999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
-      <c r="A14" t="s">
-        <v>117</v>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
+        <v>125</v>
       </c>
       <c r="B14" s="26">
         <v>1.57</v>
@@ -2815,31 +2803,31 @@
         <v>1</v>
       </c>
       <c r="E14" s="26">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="F14" s="26" t="s">
         <v>45</v>
       </c>
       <c r="G14" t="s">
-        <v>99</v>
-      </c>
-      <c r="H14" s="41">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="H14" s="36">
+        <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="J14">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <f>26*Ref!$B$18</f>
-        <v>9.3600000000000003E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+        <f>23*Ref!$B$18</f>
+        <v>8.2799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B15" s="26">
         <v>1.57</v>
@@ -2857,14 +2845,13 @@
         <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>99</v>
-      </c>
-      <c r="H15" s="41">
-        <f>1-J15</f>
-        <v>0.55000000000000004</v>
+        <v>92</v>
+      </c>
+      <c r="H15" s="36">
+        <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="J15">
         <v>0.45</v>
@@ -2874,9 +2861,9 @@
         <v>9.3600000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B16" s="26">
         <v>1.57</v>
@@ -2894,13 +2881,14 @@
         <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" s="41">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="H16" s="36">
+        <f>1-J16</f>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I16" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="J16">
         <v>0.45</v>
@@ -2910,9 +2898,9 @@
         <v>9.3600000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B17" s="26">
         <v>1.57</v>
@@ -2930,14 +2918,13 @@
         <v>45</v>
       </c>
       <c r="G17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" s="41">
-        <f>1-J17</f>
-        <v>0.55000000000000004</v>
+        <v>92</v>
+      </c>
+      <c r="H17" s="36">
+        <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="J17">
         <v>0.45</v>
@@ -2947,9 +2934,9 @@
         <v>9.3600000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="19" t="s">
-        <v>104</v>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>113</v>
       </c>
       <c r="B18" s="26">
         <v>1.57</v>
@@ -2961,31 +2948,32 @@
         <v>1</v>
       </c>
       <c r="E18" s="26">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="F18" s="26" t="s">
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>99</v>
-      </c>
-      <c r="H18" s="41">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="H18" s="36">
+        <f>1-J18</f>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I18" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="K18">
-        <f>23*Ref!$B$18</f>
-        <v>8.2799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <f>26*Ref!$B$18</f>
+        <v>9.3600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B19" s="26">
         <v>1.57</v>
@@ -3003,14 +2991,13 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H19" s="41">
-        <f>1-J19</f>
-        <v>1</v>
+        <v>92</v>
+      </c>
+      <c r="H19" s="36">
+        <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -3020,9 +3007,9 @@
         <v>8.2799999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>121</v>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="B20" s="26">
         <v>1.57</v>
@@ -3040,25 +3027,26 @@
         <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="41">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="H20" s="36">
+        <f>1-J20</f>
+        <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="J20">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <f>23*Ref!$B$18</f>
         <v>8.2799999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B21" s="26">
         <v>1.57</v>
@@ -3076,14 +3064,13 @@
         <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>99</v>
-      </c>
-      <c r="H21" s="41">
-        <f>1-J21</f>
-        <v>0.4</v>
+        <v>92</v>
+      </c>
+      <c r="H21" s="36">
+        <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="J21">
         <v>0.6</v>
@@ -3093,9 +3080,9 @@
         <v>8.2799999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B22" s="26">
         <v>1.57</v>
@@ -3113,13 +3100,14 @@
         <v>45</v>
       </c>
       <c r="G22" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" s="41">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="H22" s="36">
+        <f>1-J22</f>
+        <v>0.4</v>
       </c>
       <c r="I22" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="J22">
         <v>0.6</v>
@@ -3129,9 +3117,9 @@
         <v>8.2799999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B23" s="26">
         <v>1.57</v>
@@ -3149,14 +3137,13 @@
         <v>45</v>
       </c>
       <c r="G23" t="s">
-        <v>99</v>
-      </c>
-      <c r="H23" s="41">
-        <f>1-J23</f>
-        <v>0.4</v>
+        <v>92</v>
+      </c>
+      <c r="H23" s="36">
+        <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="J23">
         <v>0.6</v>
@@ -3166,9 +3153,9 @@
         <v>8.2799999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="19" t="s">
-        <v>135</v>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>117</v>
       </c>
       <c r="B24" s="26">
         <v>1.57</v>
@@ -3180,31 +3167,32 @@
         <v>1</v>
       </c>
       <c r="E24" s="26">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="F24" s="26" t="s">
         <v>45</v>
       </c>
       <c r="G24" t="s">
-        <v>99</v>
-      </c>
-      <c r="H24" s="41">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="H24" s="36">
+        <f>1-J24</f>
+        <v>0.4</v>
       </c>
       <c r="I24" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K24">
         <f>23*Ref!$B$18</f>
         <v>8.2799999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B25" s="26">
         <v>1.57</v>
@@ -3222,14 +3210,13 @@
         <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>99</v>
-      </c>
-      <c r="H25" s="41">
-        <f>1-J25</f>
-        <v>1</v>
+        <v>92</v>
+      </c>
+      <c r="H25" s="36">
+        <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -3239,9 +3226,9 @@
         <v>8.2799999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>137</v>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>129</v>
       </c>
       <c r="B26" s="26">
         <v>1.57</v>
@@ -3259,25 +3246,26 @@
         <v>45</v>
       </c>
       <c r="G26" t="s">
-        <v>99</v>
-      </c>
-      <c r="H26" s="41">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="H26" s="36">
+        <f>1-J26</f>
+        <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="J26">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <f>23*Ref!$B$18</f>
         <v>8.2799999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B27" s="26">
         <v>1.57</v>
@@ -3295,14 +3283,13 @@
         <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>99</v>
-      </c>
-      <c r="H27" s="41">
-        <f>1-J27</f>
-        <v>9.9999999999999978E-2</v>
+        <v>92</v>
+      </c>
+      <c r="H27" s="36">
+        <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J27">
         <v>0.9</v>
@@ -3312,9 +3299,9 @@
         <v>8.2799999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B28" s="26">
         <v>1.57</v>
@@ -3332,13 +3319,14 @@
         <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>99</v>
-      </c>
-      <c r="H28" s="41">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="H28" s="36">
+        <f>1-J28</f>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="I28" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J28">
         <v>0.9</v>
@@ -3348,9 +3336,9 @@
         <v>8.2799999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B29" s="26">
         <v>1.57</v>
@@ -3368,14 +3356,13 @@
         <v>45</v>
       </c>
       <c r="G29" t="s">
-        <v>99</v>
-      </c>
-      <c r="H29" s="41">
-        <f>1-J29</f>
-        <v>9.9999999999999978E-2</v>
+        <v>92</v>
+      </c>
+      <c r="H29" s="36">
+        <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J29">
         <v>0.9</v>
@@ -3385,9 +3372,9 @@
         <v>8.2799999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B30" s="26">
         <v>1.57</v>
@@ -3405,13 +3392,14 @@
         <v>45</v>
       </c>
       <c r="G30" t="s">
-        <v>99</v>
-      </c>
-      <c r="H30" s="41">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="H30" s="36">
+        <f>1-J30</f>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="I30" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J30">
         <v>0.9</v>
@@ -3421,9 +3409,9 @@
         <v>8.2799999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B31" s="26">
         <v>1.57</v>
@@ -3441,13 +3429,13 @@
         <v>45</v>
       </c>
       <c r="G31" t="s">
-        <v>99</v>
-      </c>
-      <c r="H31" s="41">
+        <v>92</v>
+      </c>
+      <c r="H31" s="36">
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J31">
         <v>0.9</v>
@@ -3457,9 +3445,9 @@
         <v>8.2799999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B32" s="26">
         <v>1.57</v>
@@ -3477,13 +3465,13 @@
         <v>45</v>
       </c>
       <c r="G32" t="s">
-        <v>99</v>
-      </c>
-      <c r="H32" s="41">
+        <v>92</v>
+      </c>
+      <c r="H32" s="36">
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J32">
         <v>0.9</v>
@@ -3493,9 +3481,9 @@
         <v>8.2799999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B33" s="26">
         <v>1.57</v>
@@ -3513,13 +3501,13 @@
         <v>45</v>
       </c>
       <c r="G33" t="s">
-        <v>99</v>
-      </c>
-      <c r="H33" s="41">
+        <v>92</v>
+      </c>
+      <c r="H33" s="36">
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J33">
         <v>0.9</v>
@@ -3529,104 +3517,105 @@
         <v>8.2799999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B34" s="26">
+        <v>1.57</v>
+      </c>
+      <c r="C34" s="26">
+        <v>0.77</v>
+      </c>
+      <c r="D34" s="26">
+        <v>1</v>
+      </c>
+      <c r="E34" s="26">
+        <v>2.8</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" s="36">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>134</v>
+      </c>
+      <c r="J34">
+        <v>0.9</v>
+      </c>
+      <c r="K34">
+        <f>23*Ref!$B$18</f>
+        <v>8.2799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" s="26">
         <v>1.6</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C35" s="26">
         <v>0.745</v>
       </c>
-      <c r="D34" s="26">
-        <v>1</v>
-      </c>
-      <c r="E34" s="26">
+      <c r="D35" s="26">
+        <v>1</v>
+      </c>
+      <c r="E35" s="26">
         <v>3.28</v>
       </c>
-      <c r="F34" t="s">
-        <v>157</v>
-      </c>
-      <c r="G34" t="s">
-        <v>153</v>
-      </c>
-      <c r="H34" s="40">
+      <c r="F35" t="s">
+        <v>150</v>
+      </c>
+      <c r="G35" t="s">
+        <v>146</v>
+      </c>
+      <c r="H35" s="35">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="I34" t="s">
-        <v>154</v>
-      </c>
-      <c r="J34">
+      <c r="I35" t="s">
+        <v>147</v>
+      </c>
+      <c r="J35">
         <v>0.26</v>
       </c>
-      <c r="K34">
+      <c r="K35">
         <f>65*Ref!$B$18</f>
         <v>0.23399999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" t="s">
-        <v>155</v>
-      </c>
-      <c r="B35" s="26">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="26">
         <v>1.6</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C36" s="26">
         <v>0.77339999999999998</v>
       </c>
-      <c r="D35" s="26">
-        <v>1</v>
-      </c>
-      <c r="E35" s="26">
+      <c r="D36" s="26">
+        <v>1</v>
+      </c>
+      <c r="E36" s="26">
         <v>3.1349999999999998</v>
       </c>
-      <c r="F35" t="s">
-        <v>156</v>
-      </c>
-      <c r="G35" t="s">
-        <v>153</v>
-      </c>
-      <c r="H35" s="40">
-        <v>0</v>
-      </c>
-      <c r="I35" t="s">
-        <v>154</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" t="s">
-        <v>159</v>
-      </c>
-      <c r="B36" s="26">
-        <v>1.57</v>
-      </c>
-      <c r="C36" s="26">
-        <v>0.77</v>
-      </c>
-      <c r="D36" s="26">
-        <v>1</v>
-      </c>
-      <c r="E36" s="26">
-        <v>3.3</v>
-      </c>
       <c r="F36" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G36" t="s">
-        <v>99</v>
-      </c>
-      <c r="H36" s="41">
+        <v>146</v>
+      </c>
+      <c r="H36" s="35">
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -3635,9 +3624,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="B37" s="26">
         <v>1.57</v>
@@ -3652,16 +3641,16 @@
         <v>3.3</v>
       </c>
       <c r="F37" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G37" t="s">
-        <v>99</v>
-      </c>
-      <c r="H37" s="41">
+        <v>92</v>
+      </c>
+      <c r="H37" s="36">
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3670,9 +3659,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B38" s="26">
         <v>1.57</v>
@@ -3687,27 +3676,27 @@
         <v>3.3</v>
       </c>
       <c r="F38" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G38" t="s">
-        <v>153</v>
-      </c>
-      <c r="H38" s="40">
-        <v>4.4999999999999998E-2</v>
+        <v>92</v>
+      </c>
+      <c r="H38" s="36">
+        <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="J38">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="B39" s="26">
         <v>1.57</v>
@@ -3722,27 +3711,27 @@
         <v>3.3</v>
       </c>
       <c r="F39" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G39" t="s">
-        <v>99</v>
-      </c>
-      <c r="H39" s="41">
-        <v>1</v>
+        <v>146</v>
+      </c>
+      <c r="H39" s="35">
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="I39" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B40" s="26">
         <v>1.57</v>
@@ -3757,27 +3746,27 @@
         <v>3.3</v>
       </c>
       <c r="F40" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G40" t="s">
-        <v>99</v>
-      </c>
-      <c r="H40" s="41">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="H40" s="36">
+        <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="J40">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B41" s="26">
         <v>1.57</v>
@@ -3792,16 +3781,16 @@
         <v>3.3</v>
       </c>
       <c r="F41" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G41" t="s">
-        <v>99</v>
-      </c>
-      <c r="H41" s="41">
-        <v>0.55000000000000004</v>
+        <v>92</v>
+      </c>
+      <c r="H41" s="36">
+        <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="J41">
         <v>0.45</v>
@@ -3810,9 +3799,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B42" s="26">
         <v>1.57</v>
@@ -3824,60 +3813,95 @@
         <v>1</v>
       </c>
       <c r="E42" s="26">
+        <v>3.3</v>
+      </c>
+      <c r="F42" t="s">
+        <v>149</v>
+      </c>
+      <c r="G42" t="s">
+        <v>92</v>
+      </c>
+      <c r="H42" s="36">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I42" t="s">
+        <v>120</v>
+      </c>
+      <c r="J42">
+        <v>0.45</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" s="26">
+        <v>1.57</v>
+      </c>
+      <c r="C43" s="26">
+        <v>0.77</v>
+      </c>
+      <c r="D43" s="26">
+        <v>1</v>
+      </c>
+      <c r="E43" s="26">
         <v>3</v>
       </c>
-      <c r="F42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G42" t="s">
-        <v>99</v>
-      </c>
-      <c r="H42" s="41">
-        <v>0</v>
-      </c>
-      <c r="I42" t="s">
-        <v>128</v>
-      </c>
-      <c r="J42">
+      <c r="F43" t="s">
+        <v>149</v>
+      </c>
+      <c r="G43" t="s">
+        <v>92</v>
+      </c>
+      <c r="H43" s="36">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>121</v>
+      </c>
+      <c r="J43">
         <v>0.6</v>
       </c>
-      <c r="K42">
+      <c r="K43">
         <f>23*Ref!$B$18</f>
         <v>8.2799999999999999E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" t="s">
-        <v>171</v>
-      </c>
-      <c r="B43" s="26">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" s="26">
         <v>1.57</v>
       </c>
-      <c r="C43" s="26">
+      <c r="C44" s="26">
         <v>0.77</v>
       </c>
-      <c r="D43" s="26">
-        <v>1</v>
-      </c>
-      <c r="E43" s="26">
+      <c r="D44" s="26">
+        <v>1</v>
+      </c>
+      <c r="E44" s="26">
         <v>2.8</v>
       </c>
-      <c r="F43" t="s">
-        <v>156</v>
-      </c>
-      <c r="G43" t="s">
-        <v>99</v>
-      </c>
-      <c r="H43" s="41">
-        <v>0</v>
-      </c>
-      <c r="I43" t="s">
-        <v>128</v>
-      </c>
-      <c r="J43">
+      <c r="F44" t="s">
+        <v>149</v>
+      </c>
+      <c r="G44" t="s">
+        <v>92</v>
+      </c>
+      <c r="H44" s="36">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>121</v>
+      </c>
+      <c r="J44">
         <v>0.9</v>
       </c>
-      <c r="K43">
+      <c r="K44">
         <f>23*Ref!$B$18</f>
         <v>8.2799999999999999E-2</v>
       </c>
@@ -3889,19 +3913,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>26</v>
       </c>
@@ -3921,7 +3945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>24</v>
       </c>
@@ -3929,14 +3953,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="B4" s="26">
         <v>1</v>
@@ -3951,12 +3975,12 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>159</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="B5" s="26">
         <v>1</v>
@@ -3971,7 +3995,27 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="26">
+        <v>1</v>
+      </c>
+      <c r="C6" s="26">
+        <v>0</v>
+      </c>
+      <c r="D6" s="26">
+        <v>1</v>
+      </c>
+      <c r="E6" s="26">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3981,15 +4025,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>26</v>
       </c>
@@ -4009,7 +4053,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>24</v>
       </c>
@@ -4026,14 +4070,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="B4" s="26">
         <v>0.95</v>
@@ -4052,16 +4096,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="B5" s="26">
         <v>0.95</v>
       </c>
       <c r="C5">
-        <f>40*Ref!$B$18</f>
-        <v>0.14399999999999999</v>
+        <f>16*Ref!$B$18</f>
+        <v>5.7599999999999998E-2</v>
       </c>
       <c r="D5" s="26">
         <v>0.05</v>
@@ -4073,9 +4117,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B6" s="26">
         <v>0.95</v>
@@ -4094,9 +4138,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="B7" s="26">
         <v>0.95</v>
@@ -4115,9 +4159,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B8" s="26">
         <v>0.95</v>
@@ -4136,38 +4180,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>152</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>113</v>
       </c>
       <c r="B9" s="26">
-        <v>0.73699999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="C9">
-        <f>(97-(65*B9))*Ref!$B$18</f>
-        <v>0.17674199999999998</v>
+        <f>40*Ref!$B$18</f>
+        <v>0.14399999999999999</v>
       </c>
       <c r="D9" s="26">
         <v>0.05</v>
       </c>
-      <c r="E9">
-        <f>1-(B9+D9)</f>
-        <v>0.21299999999999997</v>
+      <c r="E9" s="26">
+        <v>0</v>
       </c>
       <c r="F9" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B10" s="26">
         <v>0.73699999999999999</v>
       </c>
       <c r="C10">
-        <f>(97*Ref!$B$18)</f>
-        <v>0.34920000000000001</v>
+        <f>(97-(65*B10))*Ref!$B$18</f>
+        <v>0.17674199999999998</v>
       </c>
       <c r="D10" s="26">
         <v>0.05</v>
@@ -4180,9 +4223,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B11" s="26">
         <v>0.73699999999999999</v>
@@ -4195,27 +4238,49 @@
         <v>0.05</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11" si="0">1-(B11+D11)</f>
+        <f>1-(B11+D11)</f>
         <v>0.21299999999999997</v>
       </c>
       <c r="F11" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>152</v>
+      </c>
+      <c r="B12" s="26">
+        <v>0.73699999999999999</v>
       </c>
       <c r="C12">
+        <f>(97*Ref!$B$18)</f>
+        <v>0.34920000000000001</v>
+      </c>
+      <c r="D12" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12" si="0">1-(B12+D12)</f>
+        <v>0.21299999999999997</v>
+      </c>
+      <c r="F12" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13">
         <f>16*Ref!$B$18</f>
         <v>5.7599999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14">
         <f>16*Ref!$B$18</f>
         <v>5.7599999999999998E-2</v>
       </c>
@@ -4227,16 +4292,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F3A88C-4846-704F-87E5-A9C35CE958BB}">
-  <dimension ref="A1:V49"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.83203125" customWidth="1"/>
     <col min="2" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -4246,10 +4311,10 @@
     <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.6640625" customWidth="1"/>
-    <col min="20" max="20" width="10.83203125" style="48"/>
+    <col min="20" max="20" width="10.83203125" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>26</v>
       </c>
@@ -4263,52 +4328,52 @@
         <v>59</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F1" t="s">
         <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
         <v>61</v>
       </c>
       <c r="I1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="J1" t="s">
         <v>62</v>
       </c>
       <c r="K1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="O1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="P1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="Q1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="R1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="S1" t="s">
-        <v>133</v>
-      </c>
-      <c r="T1" s="48" t="s">
-        <v>144</v>
+        <v>126</v>
+      </c>
+      <c r="T1" s="43" t="s">
+        <v>137</v>
       </c>
       <c r="U1" t="s">
         <v>63</v>
@@ -4317,309 +4382,378 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="24" customFormat="1">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H2" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="R2" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="M2" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="N2" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="O2" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="P2" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q2" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="R2" s="26" t="s">
-        <v>94</v>
-      </c>
       <c r="S2" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="T2" s="48" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" s="25" customFormat="1">
-      <c r="A3" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="25">
-        <f>400/1000</f>
-        <v>0.4</v>
-      </c>
-      <c r="C3" s="25">
-        <f>749.1/1000</f>
-        <v>0.74909999999999999</v>
-      </c>
-      <c r="D3" s="25">
-        <f>(490.6+408.6)/1000</f>
-        <v>0.8992</v>
+        <v>127</v>
+      </c>
+      <c r="T2" s="43" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="32">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="C3" s="32">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="D3" s="32">
+        <v>0.96</v>
       </c>
       <c r="E3" s="26">
         <v>0</v>
       </c>
-      <c r="F3" s="25">
-        <f>236.9/1000</f>
-        <v>0.2369</v>
-      </c>
-      <c r="G3" s="25">
-        <v>0</v>
-      </c>
-      <c r="H3" s="25">
-        <v>0</v>
-      </c>
-      <c r="J3" s="25">
-        <v>0</v>
-      </c>
-      <c r="K3" s="35">
-        <f>SUM(B3:H3)</f>
-        <v>2.2852000000000001</v>
-      </c>
-      <c r="M3" s="25">
-        <v>0</v>
-      </c>
-      <c r="N3" s="26">
-        <v>0</v>
-      </c>
-      <c r="T3" s="48"/>
-      <c r="U3" s="28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" s="25" customFormat="1">
-      <c r="A4" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="25">
-        <f>321/1000</f>
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="C4" s="25">
-        <f>792/1000</f>
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="D4" s="25">
-        <f>930/1000</f>
-        <v>0.93</v>
-      </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="25">
-        <f>179/1000</f>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="G4" s="25">
-        <f>(65+15)/1000</f>
-        <v>0.08</v>
-      </c>
-      <c r="H4" s="25">
-        <v>0</v>
-      </c>
-      <c r="J4" s="25">
-        <f>4.88*Ref!B$18*(1000/(321-19.9+792+14+930+179+80))</f>
-        <v>7.6512347023213276E-3</v>
-      </c>
-      <c r="K4" s="35">
-        <f>SUM(B4:H4)</f>
-        <v>2.302</v>
-      </c>
-      <c r="M4" s="25">
-        <v>0</v>
-      </c>
-      <c r="N4" s="26">
-        <v>0</v>
-      </c>
-      <c r="T4" s="48"/>
-      <c r="U4" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" s="25" customFormat="1">
-      <c r="A5" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="25">
-        <f>(321-16.9)/1000</f>
-        <v>0.30410000000000004</v>
-      </c>
-      <c r="C5" s="25">
-        <f>(792+14)/1000</f>
-        <v>0.80600000000000005</v>
-      </c>
-      <c r="D5" s="25">
-        <f>930/1000</f>
-        <v>0.93</v>
-      </c>
-      <c r="E5" s="26">
-        <v>0</v>
-      </c>
-      <c r="F5" s="25">
-        <f>179/1000</f>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="G5" s="25">
-        <f>(65+15)/1000</f>
-        <v>0.08</v>
-      </c>
-      <c r="H5" s="25">
-        <f>0.2891/1000</f>
-        <v>2.8910000000000003E-4</v>
-      </c>
-      <c r="J5" s="25">
-        <f>(4.88+0.018)*Ref!B$18*(1000/(321+792+930+179+80+0.2891))</f>
-        <v>7.6588122664525476E-3</v>
-      </c>
-      <c r="K5" s="35">
-        <f>SUM(B5:H5)</f>
-        <v>2.2993891</v>
-      </c>
-      <c r="L5" s="38">
-        <f>H5/(B5*0.49)</f>
-        <v>1.940151266030911E-3</v>
-      </c>
-      <c r="M5" s="25">
-        <f>0.2891/1000</f>
-        <v>2.8910000000000003E-4</v>
-      </c>
-      <c r="N5" s="26">
-        <v>0</v>
-      </c>
-      <c r="T5" s="48"/>
-      <c r="U5" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" s="25" customFormat="1">
-      <c r="A6" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="37">
-        <f>343.6/1000</f>
-        <v>0.34360000000000002</v>
-      </c>
-      <c r="C6" s="37">
-        <f>859/1000</f>
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="D6" s="37">
-        <f>960/1000</f>
-        <v>0.96</v>
-      </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="37">
-        <f>206.94/1000</f>
-        <v>0.20693999999999999</v>
-      </c>
-      <c r="G6" s="37">
-        <v>0</v>
-      </c>
-      <c r="H6" s="25">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="25">
-        <f>4.11*Ref!B18</f>
-        <v>1.4796E-2</v>
-      </c>
-      <c r="K6" s="35">
-        <f>SUM(B6:H6)</f>
-        <v>2.3695399999999998</v>
-      </c>
-      <c r="L6" s="25">
-        <v>0</v>
-      </c>
-      <c r="M6" s="25">
-        <v>0</v>
-      </c>
-      <c r="N6" s="26">
-        <v>0</v>
-      </c>
-      <c r="T6" s="48"/>
-      <c r="U6" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" s="26" customFormat="1">
-      <c r="A7" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="35">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="C7" s="35">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="D7" s="35">
-        <v>0.96</v>
-      </c>
-      <c r="E7" s="26">
-        <v>0</v>
-      </c>
-      <c r="F7" s="35">
+      <c r="F3" s="32">
         <v>0.20699999999999999</v>
       </c>
-      <c r="G7" s="35">
-        <v>0</v>
-      </c>
-      <c r="H7" s="33">
-        <f t="shared" ref="H7:H38" si="0">(B7*O7*L7)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="34">
+      <c r="G3" s="32">
+        <v>0</v>
+      </c>
+      <c r="H3" s="30">
+        <f t="shared" ref="H3" si="0">(B3*O3*L3)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="31">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J3" s="26">
         <f>5*Ref!$B$18</f>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="K7" s="35">
-        <f t="shared" ref="K7:K38" si="1">SUM(B7:I7)</f>
+      <c r="K3" s="32">
+        <f t="shared" ref="K3" si="1">SUM(B3:I3)</f>
         <v>2.3711999999999995</v>
       </c>
-      <c r="L7" s="32">
-        <v>0</v>
-      </c>
-      <c r="M7" s="26">
-        <f>H7*((1-P7)/P7)</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="26">
+      <c r="L3" s="29">
+        <v>0</v>
+      </c>
+      <c r="M3" s="26">
+        <f>H3*((1-P3)/P3)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="26">
+        <v>0</v>
+      </c>
+      <c r="O3" s="26">
+        <v>0.49</v>
+      </c>
+      <c r="P3" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="Q3" s="26">
+        <v>200</v>
+      </c>
+      <c r="R3" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="S3" s="26">
+        <v>0</v>
+      </c>
+      <c r="T3" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="32">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="C4" s="32">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="D4" s="32">
+        <v>0.96</v>
+      </c>
+      <c r="E4" s="26">
+        <v>0</v>
+      </c>
+      <c r="F4" s="32">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="G4" s="32">
+        <v>0</v>
+      </c>
+      <c r="H4" s="30">
+        <f t="shared" ref="H4:H35" si="2">(B4*O4*L4)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="31">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="J4" s="26">
+        <f>5*Ref!$B$18</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K4" s="32">
+        <f t="shared" ref="K4:K35" si="3">SUM(B4:I4)</f>
+        <v>2.3711999999999995</v>
+      </c>
+      <c r="L4" s="29">
+        <v>0</v>
+      </c>
+      <c r="M4" s="26">
+        <f>H4*((1-P4)/P4)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="26">
+        <v>0</v>
+      </c>
+      <c r="O4" s="26">
+        <v>0.49</v>
+      </c>
+      <c r="P4" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="Q4" s="26">
+        <v>200</v>
+      </c>
+      <c r="R4" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="S4" s="26">
+        <v>0</v>
+      </c>
+      <c r="T4" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="32">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="C5" s="32">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="D5" s="32">
+        <v>0.96</v>
+      </c>
+      <c r="E5" s="26">
+        <v>0</v>
+      </c>
+      <c r="F5" s="32">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="G5" s="32">
+        <v>0</v>
+      </c>
+      <c r="H5" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="31">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="J5" s="26">
+        <f>5*Ref!$B$18</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K5" s="32">
+        <f t="shared" si="3"/>
+        <v>2.3711999999999995</v>
+      </c>
+      <c r="L5" s="33">
+        <v>0</v>
+      </c>
+      <c r="M5" s="26">
+        <f>H5*((1-P5)/P5)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="26">
+        <v>0</v>
+      </c>
+      <c r="O5" s="26">
+        <v>0.49</v>
+      </c>
+      <c r="P5" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="Q5" s="26">
+        <v>200</v>
+      </c>
+      <c r="R5" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="S5" s="26">
+        <v>0</v>
+      </c>
+      <c r="T5" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="32">
+        <f>0.344*0.95</f>
+        <v>0.32679999999999998</v>
+      </c>
+      <c r="C6" s="32">
+        <f>0.859+((0.344-B6)*(14/16.9))</f>
+        <v>0.87324852071005921</v>
+      </c>
+      <c r="D6" s="32">
+        <v>0.96</v>
+      </c>
+      <c r="E6" s="26">
+        <v>0</v>
+      </c>
+      <c r="F6" s="32">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="G6" s="32">
+        <v>0</v>
+      </c>
+      <c r="H6" s="31">
+        <f t="shared" si="2"/>
+        <v>4.8039600000000001E-4</v>
+      </c>
+      <c r="I6" s="31">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="J6" s="26">
+        <f>5.018*Ref!$B$18</f>
+        <v>1.8064799999999999E-2</v>
+      </c>
+      <c r="K6" s="32">
+        <f t="shared" si="3"/>
+        <v>2.3687289167100589</v>
+      </c>
+      <c r="L6" s="33">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M6" s="30">
+        <f>H6*((1-P6)/P6)+(0.00000009)</f>
+        <v>3.2035400000000007E-4</v>
+      </c>
+      <c r="N6" s="30">
+        <v>0</v>
+      </c>
+      <c r="O6" s="26">
+        <v>0.49</v>
+      </c>
+      <c r="P6" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="Q6" s="26">
+        <v>200</v>
+      </c>
+      <c r="R6" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="S6" s="26">
+        <v>0</v>
+      </c>
+      <c r="T6" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="32">
+        <f>0.344*0.95</f>
+        <v>0.32679999999999998</v>
+      </c>
+      <c r="C7" s="32">
+        <f>0.859+((0.344-B7)*(14/16.9))</f>
+        <v>0.87324852071005921</v>
+      </c>
+      <c r="D7" s="32">
+        <v>0.96</v>
+      </c>
+      <c r="E7" s="26">
+        <v>0</v>
+      </c>
+      <c r="F7" s="32">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="G7" s="32">
+        <v>0</v>
+      </c>
+      <c r="H7" s="31">
+        <f t="shared" si="2"/>
+        <v>4.8039600000000001E-4</v>
+      </c>
+      <c r="I7" s="31">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="J7" s="26">
+        <f>5.018*Ref!$B$18</f>
+        <v>1.8064799999999999E-2</v>
+      </c>
+      <c r="K7" s="32">
+        <f t="shared" si="3"/>
+        <v>2.3687289167100589</v>
+      </c>
+      <c r="L7" s="33">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M7" s="30">
+        <f>H7*((1-P7)/P7)+(0.00000009)</f>
+        <v>3.2035400000000007E-4</v>
+      </c>
+      <c r="N7" s="30">
         <v>0</v>
       </c>
       <c r="O7" s="26">
@@ -4637,53 +4771,53 @@
       <c r="S7" s="26">
         <v>0</v>
       </c>
-      <c r="T7" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" s="26" customFormat="1">
-      <c r="A8" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="35">
+      <c r="T7" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="32">
         <v>0.34399999999999997</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="32">
         <v>0.85899999999999999</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="32">
         <v>0.96</v>
       </c>
       <c r="E8" s="26">
         <v>0</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="32">
         <v>0.20699999999999999</v>
       </c>
-      <c r="G8" s="35">
-        <v>0</v>
-      </c>
-      <c r="H8" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="34">
+      <c r="G8" s="32">
+        <v>0</v>
+      </c>
+      <c r="H8" s="31">
+        <f t="shared" si="2"/>
+        <v>1.6855999999999999E-2</v>
+      </c>
+      <c r="I8" s="31">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="J8" s="26">
-        <f>5*Ref!$B$18</f>
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="K8" s="35">
-        <f t="shared" si="1"/>
-        <v>2.3711999999999995</v>
-      </c>
-      <c r="L8" s="36">
-        <v>0</v>
+        <f>5*Ref!$B$18+2.76*2*(D8+M8)*Ref!$B$18</f>
+        <v>3.7300428287999995E-2</v>
+      </c>
+      <c r="K8" s="32">
+        <f t="shared" si="3"/>
+        <v>2.3880559999999997</v>
+      </c>
+      <c r="L8" s="33">
+        <v>0.1</v>
       </c>
       <c r="M8" s="26">
-        <f>H8*((1-P8)/P8)</f>
-        <v>0</v>
+        <f t="shared" ref="M8:M35" si="4">H8*((1-P8)/P8)</f>
+        <v>1.1237333333333334E-2</v>
       </c>
       <c r="N8" s="26">
         <v>0</v>
@@ -4703,57 +4837,55 @@
       <c r="S8" s="26">
         <v>0</v>
       </c>
-      <c r="T8" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" s="26" customFormat="1">
-      <c r="A9" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="35">
-        <f>0.344*0.95</f>
-        <v>0.32679999999999998</v>
-      </c>
-      <c r="C9" s="35">
-        <f>0.859+((0.344-B9)*(14/16.9))</f>
-        <v>0.87324852071005921</v>
-      </c>
-      <c r="D9" s="35">
+      <c r="T8" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="32">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="C9" s="32">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="D9" s="32">
         <v>0.96</v>
       </c>
       <c r="E9" s="26">
         <v>0</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="32">
         <v>0.20699999999999999</v>
       </c>
-      <c r="G9" s="35">
-        <v>0</v>
-      </c>
-      <c r="H9" s="34">
-        <f t="shared" si="0"/>
-        <v>4.8039600000000001E-4</v>
-      </c>
-      <c r="I9" s="34">
+      <c r="G9" s="32">
+        <v>0</v>
+      </c>
+      <c r="H9" s="31">
+        <f t="shared" si="2"/>
+        <v>1.6855999999999999E-2</v>
+      </c>
+      <c r="I9" s="31">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="J9" s="26">
-        <f>5.018*Ref!$B$18</f>
-        <v>1.8064799999999999E-2</v>
-      </c>
-      <c r="K9" s="35">
-        <f t="shared" si="1"/>
-        <v>2.3687289167100589</v>
-      </c>
-      <c r="L9" s="36">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="M9" s="33">
-        <f>H9*((1-P9)/P9)+(0.00000009)</f>
-        <v>3.2035400000000007E-4</v>
-      </c>
-      <c r="N9" s="33">
+        <f>5*Ref!$B$18+2.76*2*(D9+M9)*Ref!$B$18</f>
+        <v>3.7300428287999995E-2</v>
+      </c>
+      <c r="K9" s="32">
+        <f t="shared" si="3"/>
+        <v>2.3880559999999997</v>
+      </c>
+      <c r="L9" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="M9" s="26">
+        <f t="shared" si="4"/>
+        <v>1.1237333333333334E-2</v>
+      </c>
+      <c r="N9" s="26">
         <v>0</v>
       </c>
       <c r="O9" s="26">
@@ -4771,58 +4903,56 @@
       <c r="S9" s="26">
         <v>0</v>
       </c>
-      <c r="T9" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" s="26" customFormat="1">
-      <c r="A10" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="35">
-        <f>0.344*0.95</f>
-        <v>0.32679999999999998</v>
-      </c>
-      <c r="C10" s="35">
-        <f>0.859+((0.344-B10)*(14/16.9))</f>
-        <v>0.87324852071005921</v>
-      </c>
-      <c r="D10" s="35">
+      <c r="T9" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="32">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="C10" s="32">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="D10" s="32">
         <v>0.96</v>
       </c>
       <c r="E10" s="26">
         <v>0</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="32">
         <v>0.20699999999999999</v>
       </c>
-      <c r="G10" s="35">
-        <v>0</v>
-      </c>
-      <c r="H10" s="34">
-        <f t="shared" si="0"/>
-        <v>4.8039600000000001E-4</v>
-      </c>
-      <c r="I10" s="34">
+      <c r="G10" s="32">
+        <v>0</v>
+      </c>
+      <c r="H10" s="31">
+        <f t="shared" si="2"/>
+        <v>1.6855999999999999E-2</v>
+      </c>
+      <c r="I10" s="31">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="J10" s="26">
-        <f>5.018*Ref!$B$18</f>
-        <v>1.8064799999999999E-2</v>
-      </c>
-      <c r="K10" s="35">
-        <f t="shared" si="1"/>
-        <v>2.3687289167100589</v>
-      </c>
-      <c r="L10" s="36">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="M10" s="33">
-        <f>H10*((1-P10)/P10)+(0.00000009)</f>
-        <v>3.2035400000000007E-4</v>
-      </c>
-      <c r="N10" s="33">
-        <v>0</v>
+        <f>5*Ref!$B$18+2.76*2*(D10+M10)*Ref!$B$18</f>
+        <v>3.7300428287999995E-2</v>
+      </c>
+      <c r="K10" s="32">
+        <f t="shared" si="3"/>
+        <v>2.3880559999999997</v>
+      </c>
+      <c r="L10" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="M10" s="26">
+        <f t="shared" si="4"/>
+        <v>1.1237333333333334E-2</v>
+      </c>
+      <c r="N10" s="26">
+        <v>1</v>
       </c>
       <c r="O10" s="26">
         <v>0.49</v>
@@ -4839,56 +4969,56 @@
       <c r="S10" s="26">
         <v>0</v>
       </c>
-      <c r="T10" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" s="26" customFormat="1">
-      <c r="A11" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="35">
+      <c r="T10" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="32">
         <v>0.34399999999999997</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="32">
         <v>0.85899999999999999</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="32">
         <v>0.96</v>
       </c>
       <c r="E11" s="26">
         <v>0</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="32">
         <v>0.20699999999999999</v>
       </c>
-      <c r="G11" s="35">
-        <v>0</v>
-      </c>
-      <c r="H11" s="34">
-        <f t="shared" si="0"/>
+      <c r="G11" s="32">
+        <v>0</v>
+      </c>
+      <c r="H11" s="31">
+        <f t="shared" si="2"/>
         <v>1.6855999999999999E-2</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="31">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="J11" s="26">
         <f>5*Ref!$B$18+2.76*2*(D11+M11)*Ref!$B$18</f>
         <v>3.7300428287999995E-2</v>
       </c>
-      <c r="K11" s="35">
-        <f t="shared" si="1"/>
+      <c r="K11" s="32">
+        <f t="shared" si="3"/>
         <v>2.3880559999999997</v>
       </c>
-      <c r="L11" s="36">
+      <c r="L11" s="33">
         <v>0.1</v>
       </c>
       <c r="M11" s="26">
-        <f t="shared" ref="M11:M38" si="2">H11*((1-P11)/P11)</f>
+        <f t="shared" si="4"/>
         <v>1.1237333333333334E-2</v>
       </c>
       <c r="N11" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="26">
         <v>0.49</v>
@@ -4905,53 +5035,55 @@
       <c r="S11" s="26">
         <v>0</v>
       </c>
-      <c r="T11" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" s="26" customFormat="1">
-      <c r="A12" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="35">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="C12" s="35">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="D12" s="35">
+      <c r="T11" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="32">
+        <f>0.344*1.1</f>
+        <v>0.37840000000000001</v>
+      </c>
+      <c r="C12" s="32">
+        <f>0.859+((0.344-B12)*(14/16.9))</f>
+        <v>0.83050295857988166</v>
+      </c>
+      <c r="D12" s="32">
         <v>0.96</v>
       </c>
       <c r="E12" s="26">
         <v>0</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="32">
         <v>0.20699999999999999</v>
       </c>
-      <c r="G12" s="35">
-        <v>0</v>
-      </c>
-      <c r="H12" s="34">
-        <f t="shared" si="0"/>
-        <v>1.6855999999999999E-2</v>
-      </c>
-      <c r="I12" s="34">
+      <c r="G12" s="32">
+        <v>0</v>
+      </c>
+      <c r="H12" s="31">
+        <f t="shared" si="2"/>
+        <v>1.8541600000000002E-2</v>
+      </c>
+      <c r="I12" s="31">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="J12" s="26">
         <f>5*Ref!$B$18+2.76*2*(D12+M12)*Ref!$B$18</f>
-        <v>3.7300428287999995E-2</v>
-      </c>
-      <c r="K12" s="35">
-        <f t="shared" si="1"/>
-        <v>2.3880559999999997</v>
-      </c>
-      <c r="L12" s="36">
+        <v>3.7322759116799997E-2</v>
+      </c>
+      <c r="K12" s="32">
+        <f t="shared" si="3"/>
+        <v>2.3956445585798809</v>
+      </c>
+      <c r="L12" s="33">
         <v>0.1</v>
       </c>
       <c r="M12" s="26">
-        <f t="shared" si="2"/>
-        <v>1.1237333333333334E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.2361066666666668E-2</v>
       </c>
       <c r="N12" s="26">
         <v>0</v>
@@ -4971,56 +5103,58 @@
       <c r="S12" s="26">
         <v>0</v>
       </c>
-      <c r="T12" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" s="26" customFormat="1">
-      <c r="A13" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" s="35">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="C13" s="35">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="D13" s="35">
+      <c r="T12" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="32">
+        <f>0.344*1.1</f>
+        <v>0.37840000000000001</v>
+      </c>
+      <c r="C13" s="32">
+        <f>0.859+((0.344-B13)*(14/16.9))</f>
+        <v>0.83050295857988166</v>
+      </c>
+      <c r="D13" s="32">
         <v>0.96</v>
       </c>
       <c r="E13" s="26">
         <v>0</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="32">
         <v>0.20699999999999999</v>
       </c>
-      <c r="G13" s="35">
-        <v>0</v>
-      </c>
-      <c r="H13" s="34">
-        <f t="shared" si="0"/>
-        <v>1.6855999999999999E-2</v>
-      </c>
-      <c r="I13" s="34">
+      <c r="G13" s="32">
+        <v>0</v>
+      </c>
+      <c r="H13" s="31">
+        <f t="shared" si="2"/>
+        <v>1.8541600000000002E-2</v>
+      </c>
+      <c r="I13" s="31">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="J13" s="26">
         <f>5*Ref!$B$18+2.76*2*(D13+M13)*Ref!$B$18</f>
-        <v>3.7300428287999995E-2</v>
-      </c>
-      <c r="K13" s="35">
-        <f t="shared" si="1"/>
-        <v>2.3880559999999997</v>
-      </c>
-      <c r="L13" s="36">
+        <v>3.7322759116799997E-2</v>
+      </c>
+      <c r="K13" s="32">
+        <f t="shared" si="3"/>
+        <v>2.3956445585798809</v>
+      </c>
+      <c r="L13" s="33">
         <v>0.1</v>
       </c>
       <c r="M13" s="26">
-        <f t="shared" si="2"/>
-        <v>1.1237333333333334E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.2361066666666668E-2</v>
       </c>
       <c r="N13" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="26">
         <v>0.49</v>
@@ -5037,56 +5171,58 @@
       <c r="S13" s="26">
         <v>0</v>
       </c>
-      <c r="T13" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" s="26" customFormat="1">
-      <c r="A14" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="B14" s="35">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="C14" s="35">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="D14" s="35">
+      <c r="T13" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="32">
+        <f>0.344*0.9</f>
+        <v>0.30959999999999999</v>
+      </c>
+      <c r="C14" s="32">
+        <f>0.859+((0.344-B14)*(14/16.9))</f>
+        <v>0.88749704142011832</v>
+      </c>
+      <c r="D14" s="32">
         <v>0.96</v>
       </c>
       <c r="E14" s="26">
         <v>0</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="32">
         <v>0.20699999999999999</v>
       </c>
-      <c r="G14" s="35">
-        <v>0</v>
-      </c>
-      <c r="H14" s="34">
-        <f t="shared" si="0"/>
-        <v>1.6855999999999999E-2</v>
-      </c>
-      <c r="I14" s="34">
+      <c r="G14" s="32">
+        <v>0</v>
+      </c>
+      <c r="H14" s="31">
+        <f t="shared" si="2"/>
+        <v>1.5170399999999999E-2</v>
+      </c>
+      <c r="I14" s="31">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="J14" s="26">
         <f>5*Ref!$B$18+2.76*2*(D14+M14)*Ref!$B$18</f>
-        <v>3.7300428287999995E-2</v>
-      </c>
-      <c r="K14" s="35">
-        <f t="shared" si="1"/>
-        <v>2.3880559999999997</v>
-      </c>
-      <c r="L14" s="36">
+        <v>3.7278097459199994E-2</v>
+      </c>
+      <c r="K14" s="32">
+        <f t="shared" si="3"/>
+        <v>2.3804674414201181</v>
+      </c>
+      <c r="L14" s="33">
         <v>0.1</v>
       </c>
       <c r="M14" s="26">
-        <f t="shared" si="2"/>
-        <v>1.1237333333333334E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.01136E-2</v>
       </c>
       <c r="N14" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="26">
         <v>0.49</v>
@@ -5103,55 +5239,55 @@
       <c r="S14" s="26">
         <v>0</v>
       </c>
-      <c r="T14" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="35">
-        <f>0.344*1.1</f>
-        <v>0.37840000000000001</v>
-      </c>
-      <c r="C15" s="35">
+      <c r="T14" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="32">
+        <f>0.344*0.9</f>
+        <v>0.30959999999999999</v>
+      </c>
+      <c r="C15" s="32">
         <f>0.859+((0.344-B15)*(14/16.9))</f>
-        <v>0.83050295857988166</v>
-      </c>
-      <c r="D15" s="35">
+        <v>0.88749704142011832</v>
+      </c>
+      <c r="D15" s="32">
         <v>0.96</v>
       </c>
       <c r="E15" s="26">
         <v>0</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="32">
         <v>0.20699999999999999</v>
       </c>
-      <c r="G15" s="35">
-        <v>0</v>
-      </c>
-      <c r="H15" s="34">
-        <f t="shared" si="0"/>
-        <v>1.8541600000000002E-2</v>
-      </c>
-      <c r="I15" s="34">
+      <c r="G15" s="32">
+        <v>0</v>
+      </c>
+      <c r="H15" s="31">
+        <f t="shared" si="2"/>
+        <v>1.5170399999999999E-2</v>
+      </c>
+      <c r="I15" s="31">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="J15" s="26">
         <f>5*Ref!$B$18+2.76*2*(D15+M15)*Ref!$B$18</f>
-        <v>3.7322759116799997E-2</v>
-      </c>
-      <c r="K15" s="35">
-        <f t="shared" si="1"/>
-        <v>2.3956445585798809</v>
-      </c>
-      <c r="L15" s="36">
+        <v>3.7278097459199994E-2</v>
+      </c>
+      <c r="K15" s="32">
+        <f t="shared" si="3"/>
+        <v>2.3804674414201181</v>
+      </c>
+      <c r="L15" s="33">
         <v>0.1</v>
       </c>
       <c r="M15" s="26">
-        <f t="shared" si="2"/>
-        <v>1.2361066666666668E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.01136E-2</v>
       </c>
       <c r="N15" s="26">
         <v>0</v>
@@ -5171,55 +5307,57 @@
       <c r="S15" s="26">
         <v>0</v>
       </c>
-      <c r="T15" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" s="35">
-        <f>0.344*1.1</f>
-        <v>0.37840000000000001</v>
-      </c>
-      <c r="C16" s="35">
-        <f>0.859+((0.344-B16)*(14/16.9))</f>
-        <v>0.83050295857988166</v>
-      </c>
-      <c r="D16" s="35">
-        <v>0.96</v>
+      <c r="T15" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="23">
+        <f t="shared" ref="B16:B21" si="5">1.6/0.00788/1000</f>
+        <v>0.20304568527918784</v>
+      </c>
+      <c r="C16" s="23">
+        <f t="shared" ref="C16:C21" si="6">8.3/0.00788/1000</f>
+        <v>1.0532994923857868</v>
+      </c>
+      <c r="D16" s="23">
+        <f t="shared" ref="D16:D23" si="7">5.5/0.00788/1000</f>
+        <v>0.69796954314720816</v>
       </c>
       <c r="E16" s="26">
         <v>0</v>
       </c>
-      <c r="F16" s="35">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="G16" s="35">
-        <v>0</v>
-      </c>
-      <c r="H16" s="34">
-        <f t="shared" si="0"/>
-        <v>1.8541600000000002E-2</v>
-      </c>
-      <c r="I16" s="34">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="J16" s="26">
-        <f>5*Ref!$B$18+2.76*2*(D16+M16)*Ref!$B$18</f>
-        <v>3.7322759116799997E-2</v>
-      </c>
-      <c r="K16" s="35">
-        <f t="shared" si="1"/>
-        <v>2.3956445585798809</v>
-      </c>
-      <c r="L16" s="36">
-        <v>0.1</v>
+      <c r="F16" s="23">
+        <f t="shared" ref="F16:F23" si="8">0.9/0.00788/1000</f>
+        <v>0.11421319796954314</v>
+      </c>
+      <c r="G16" s="32">
+        <v>0</v>
+      </c>
+      <c r="H16" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="31">
+        <v>0</v>
+      </c>
+      <c r="J16" s="31">
+        <f>(2*K16+5)*Ref!$B$18</f>
+        <v>3.2893401015228425E-2</v>
+      </c>
+      <c r="K16" s="32">
+        <f t="shared" si="3"/>
+        <v>2.0685279187817258</v>
+      </c>
+      <c r="L16" s="33">
+        <v>0</v>
       </c>
       <c r="M16" s="26">
-        <f t="shared" si="2"/>
-        <v>1.2361066666666668E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="N16" s="26">
         <v>0</v>
@@ -5237,57 +5375,65 @@
         <v>0.04</v>
       </c>
       <c r="S16" s="26">
-        <v>0</v>
-      </c>
-      <c r="T16" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="T16" s="43">
+        <v>1</v>
+      </c>
+      <c r="U16" t="s">
+        <v>102</v>
+      </c>
+      <c r="V16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="35">
-        <f>0.344*0.9</f>
-        <v>0.30959999999999999</v>
-      </c>
-      <c r="C17" s="35">
-        <f>0.859+((0.344-B17)*(14/16.9))</f>
-        <v>0.88749704142011832</v>
-      </c>
-      <c r="D17" s="35">
-        <v>0.96</v>
+      <c r="B17" s="23">
+        <f t="shared" si="5"/>
+        <v>0.20304568527918784</v>
+      </c>
+      <c r="C17" s="23">
+        <f t="shared" si="6"/>
+        <v>1.0532994923857868</v>
+      </c>
+      <c r="D17" s="23">
+        <f t="shared" si="7"/>
+        <v>0.69796954314720816</v>
       </c>
       <c r="E17" s="26">
         <v>0</v>
       </c>
-      <c r="F17" s="35">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="G17" s="35">
-        <v>0</v>
-      </c>
-      <c r="H17" s="34">
-        <f t="shared" si="0"/>
-        <v>1.5170399999999999E-2</v>
-      </c>
-      <c r="I17" s="34">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="J17" s="26">
-        <f>5*Ref!$B$18+2.76*2*(D17+M17)*Ref!$B$18</f>
-        <v>3.7278097459199994E-2</v>
-      </c>
-      <c r="K17" s="35">
-        <f t="shared" si="1"/>
-        <v>2.3804674414201181</v>
-      </c>
-      <c r="L17" s="36">
-        <v>0.1</v>
+      <c r="F17" s="23">
+        <f t="shared" si="8"/>
+        <v>0.11421319796954314</v>
+      </c>
+      <c r="G17" s="32">
+        <v>0</v>
+      </c>
+      <c r="H17" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="31">
+        <v>0</v>
+      </c>
+      <c r="J17" s="31">
+        <f>(2*K17+5)*Ref!$B$18</f>
+        <v>3.2893401015228425E-2</v>
+      </c>
+      <c r="K17" s="32">
+        <f t="shared" si="3"/>
+        <v>2.0685279187817258</v>
+      </c>
+      <c r="L17" s="33">
+        <v>0</v>
       </c>
       <c r="M17" s="26">
-        <f t="shared" si="2"/>
-        <v>1.01136E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="N17" s="26">
         <v>0</v>
@@ -5305,57 +5451,65 @@
         <v>0.04</v>
       </c>
       <c r="S17" s="26">
-        <v>0</v>
-      </c>
-      <c r="T17" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="A18" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="T17" s="43">
+        <v>1</v>
+      </c>
+      <c r="U17" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="35">
-        <f>0.344*0.9</f>
-        <v>0.30959999999999999</v>
-      </c>
-      <c r="C18" s="35">
-        <f>0.859+((0.344-B18)*(14/16.9))</f>
-        <v>0.88749704142011832</v>
-      </c>
-      <c r="D18" s="35">
-        <v>0.96</v>
+      <c r="V17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="23">
+        <f t="shared" si="5"/>
+        <v>0.20304568527918784</v>
+      </c>
+      <c r="C18" s="23">
+        <f t="shared" si="6"/>
+        <v>1.0532994923857868</v>
+      </c>
+      <c r="D18" s="23">
+        <f t="shared" si="7"/>
+        <v>0.69796954314720816</v>
       </c>
       <c r="E18" s="26">
         <v>0</v>
       </c>
-      <c r="F18" s="35">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="G18" s="35">
-        <v>0</v>
-      </c>
-      <c r="H18" s="34">
-        <f t="shared" si="0"/>
-        <v>1.5170399999999999E-2</v>
-      </c>
-      <c r="I18" s="34">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="J18" s="26">
-        <f>5*Ref!$B$18+2.76*2*(D18+M18)*Ref!$B$18</f>
-        <v>3.7278097459199994E-2</v>
-      </c>
-      <c r="K18" s="35">
-        <f t="shared" si="1"/>
-        <v>2.3804674414201181</v>
-      </c>
-      <c r="L18" s="36">
-        <v>0.1</v>
+      <c r="F18" s="23">
+        <f t="shared" si="8"/>
+        <v>0.11421319796954314</v>
+      </c>
+      <c r="G18" s="32">
+        <v>0</v>
+      </c>
+      <c r="H18" s="31">
+        <f t="shared" si="2"/>
+        <v>1.4923857868020305E-2</v>
+      </c>
+      <c r="I18" s="31">
+        <v>0</v>
+      </c>
+      <c r="J18" s="31">
+        <f>(2*K18+5)*Ref!$B$18</f>
+        <v>3.3000852791878164E-2</v>
+      </c>
+      <c r="K18" s="32">
+        <f t="shared" si="3"/>
+        <v>2.083451776649746</v>
+      </c>
+      <c r="L18" s="34">
+        <v>0.15</v>
       </c>
       <c r="M18" s="26">
-        <f t="shared" si="2"/>
-        <v>1.01136E-2</v>
+        <f t="shared" si="4"/>
+        <v>9.9492385786802053E-3</v>
       </c>
       <c r="N18" s="26">
         <v>0</v>
@@ -5373,59 +5527,59 @@
         <v>0.04</v>
       </c>
       <c r="S18" s="26">
-        <v>0</v>
-      </c>
-      <c r="T18" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="A19" s="31" t="s">
-        <v>107</v>
+        <v>1</v>
+      </c>
+      <c r="T18" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
+        <v>104</v>
       </c>
       <c r="B19" s="23">
-        <f t="shared" ref="B19:B24" si="3">1.6/0.00788/1000</f>
+        <f t="shared" si="5"/>
         <v>0.20304568527918784</v>
       </c>
       <c r="C19" s="23">
-        <f t="shared" ref="C19:C24" si="4">8.3/0.00788/1000</f>
+        <f t="shared" si="6"/>
         <v>1.0532994923857868</v>
       </c>
       <c r="D19" s="23">
-        <f t="shared" ref="D19:D26" si="5">5.5/0.00788/1000</f>
+        <f t="shared" si="7"/>
         <v>0.69796954314720816</v>
       </c>
       <c r="E19" s="26">
         <v>0</v>
       </c>
       <c r="F19" s="23">
-        <f t="shared" ref="F19:F26" si="6">0.9/0.00788/1000</f>
+        <f t="shared" si="8"/>
         <v>0.11421319796954314</v>
       </c>
-      <c r="G19" s="35">
-        <v>0</v>
-      </c>
-      <c r="H19" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="34">
-        <v>0</v>
-      </c>
-      <c r="J19" s="34">
+      <c r="G19" s="32">
+        <v>0</v>
+      </c>
+      <c r="H19" s="31">
+        <f t="shared" si="2"/>
+        <v>1.4923857868020305E-2</v>
+      </c>
+      <c r="I19" s="31">
+        <v>0</v>
+      </c>
+      <c r="J19" s="31">
         <f>(2*K19+5)*Ref!$B$18</f>
-        <v>3.2893401015228425E-2</v>
-      </c>
-      <c r="K19" s="35">
-        <f t="shared" si="1"/>
-        <v>2.0685279187817258</v>
-      </c>
-      <c r="L19" s="36">
-        <v>0</v>
+        <v>3.3000852791878164E-2</v>
+      </c>
+      <c r="K19" s="32">
+        <f t="shared" si="3"/>
+        <v>2.083451776649746</v>
+      </c>
+      <c r="L19" s="34">
+        <v>0.15</v>
       </c>
       <c r="M19" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>9.9492385786802053E-3</v>
       </c>
       <c r="N19" s="26">
         <v>0</v>
@@ -5445,66 +5599,60 @@
       <c r="S19" s="26">
         <v>1</v>
       </c>
-      <c r="T19" s="48">
-        <v>1</v>
-      </c>
-      <c r="U19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="A20" s="31" t="s">
-        <v>110</v>
+      <c r="T19" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="28" t="s">
+        <v>124</v>
       </c>
       <c r="B20" s="23">
+        <f t="shared" si="5"/>
+        <v>0.20304568527918784</v>
+      </c>
+      <c r="C20" s="23">
+        <f t="shared" si="6"/>
+        <v>1.0532994923857868</v>
+      </c>
+      <c r="D20" s="23">
+        <f t="shared" si="7"/>
+        <v>0.69796954314720816</v>
+      </c>
+      <c r="E20" s="26">
+        <v>0</v>
+      </c>
+      <c r="F20" s="23">
+        <f t="shared" si="8"/>
+        <v>0.11421319796954314</v>
+      </c>
+      <c r="G20" s="32">
+        <v>0</v>
+      </c>
+      <c r="H20" s="31">
+        <f t="shared" si="2"/>
+        <v>1.4923857868020305E-2</v>
+      </c>
+      <c r="I20" s="31">
+        <v>0</v>
+      </c>
+      <c r="J20" s="31">
+        <f>(2*K20+5)*Ref!$B$18</f>
+        <v>3.3000852791878164E-2</v>
+      </c>
+      <c r="K20" s="32">
         <f t="shared" si="3"/>
-        <v>0.20304568527918784</v>
-      </c>
-      <c r="C20" s="23">
+        <v>2.083451776649746</v>
+      </c>
+      <c r="L20" s="34">
+        <v>0.15</v>
+      </c>
+      <c r="M20" s="26">
         <f t="shared" si="4"/>
-        <v>1.0532994923857868</v>
-      </c>
-      <c r="D20" s="23">
-        <f t="shared" si="5"/>
-        <v>0.69796954314720816</v>
-      </c>
-      <c r="E20" s="26">
-        <v>0</v>
-      </c>
-      <c r="F20" s="23">
-        <f t="shared" si="6"/>
-        <v>0.11421319796954314</v>
-      </c>
-      <c r="G20" s="35">
-        <v>0</v>
-      </c>
-      <c r="H20" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="34">
-        <v>0</v>
-      </c>
-      <c r="J20" s="34">
-        <f>(2*K20+5)*Ref!$B$18</f>
-        <v>3.2893401015228425E-2</v>
-      </c>
-      <c r="K20" s="35">
-        <f t="shared" si="1"/>
-        <v>2.0685279187817258</v>
-      </c>
-      <c r="L20" s="36">
-        <v>0</v>
-      </c>
-      <c r="M20" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.9492385786802053E-3</v>
       </c>
       <c r="N20" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="26">
         <v>0.49</v>
@@ -5521,66 +5669,60 @@
       <c r="S20" s="26">
         <v>1</v>
       </c>
-      <c r="T20" s="48">
-        <v>1</v>
-      </c>
-      <c r="U20" t="s">
-        <v>109</v>
-      </c>
-      <c r="V20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21" s="31" t="s">
-        <v>108</v>
+      <c r="T20" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="28" t="s">
+        <v>125</v>
       </c>
       <c r="B21" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.20304568527918784</v>
       </c>
       <c r="C21" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0532994923857868</v>
       </c>
       <c r="D21" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.69796954314720816</v>
       </c>
       <c r="E21" s="26">
         <v>0</v>
       </c>
       <c r="F21" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11421319796954314</v>
       </c>
-      <c r="G21" s="35">
-        <v>0</v>
-      </c>
-      <c r="H21" s="34">
-        <f t="shared" si="0"/>
+      <c r="G21" s="32">
+        <v>0</v>
+      </c>
+      <c r="H21" s="31">
+        <f t="shared" si="2"/>
         <v>1.4923857868020305E-2</v>
       </c>
-      <c r="I21" s="34">
-        <v>0</v>
-      </c>
-      <c r="J21" s="34">
+      <c r="I21" s="31">
+        <v>0</v>
+      </c>
+      <c r="J21" s="31">
         <f>(2*K21+5)*Ref!$B$18</f>
         <v>3.3000852791878164E-2</v>
       </c>
-      <c r="K21" s="35">
-        <f t="shared" si="1"/>
+      <c r="K21" s="32">
+        <f t="shared" si="3"/>
         <v>2.083451776649746</v>
       </c>
-      <c r="L21" s="39">
+      <c r="L21" s="34">
         <v>0.15</v>
       </c>
       <c r="M21" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.9492385786802053E-3</v>
       </c>
       <c r="N21" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="26">
         <v>0.49</v>
@@ -5597,57 +5739,57 @@
       <c r="S21" s="26">
         <v>1</v>
       </c>
-      <c r="T21" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
-      <c r="A22" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" s="23">
+      <c r="T21" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="32">
+        <f>0.203*0.9</f>
+        <v>0.18270000000000003</v>
+      </c>
+      <c r="C22" s="32">
+        <f>1.0533+((0.203-B22)*(14.4/16.9))</f>
+        <v>1.0705970414201182</v>
+      </c>
+      <c r="D22" s="23">
+        <f t="shared" si="7"/>
+        <v>0.69796954314720816</v>
+      </c>
+      <c r="E22" s="26">
+        <v>0</v>
+      </c>
+      <c r="F22" s="23">
+        <f t="shared" si="8"/>
+        <v>0.11421319796954314</v>
+      </c>
+      <c r="G22" s="32">
+        <v>0</v>
+      </c>
+      <c r="H22" s="31">
+        <f t="shared" si="2"/>
+        <v>1.3428450000000003E-2</v>
+      </c>
+      <c r="I22" s="31">
+        <v>0</v>
+      </c>
+      <c r="J22" s="31">
+        <f>(2*K22+5)*Ref!$B$18</f>
+        <v>3.2968139274265465E-2</v>
+      </c>
+      <c r="K22" s="32">
         <f t="shared" si="3"/>
-        <v>0.20304568527918784</v>
-      </c>
-      <c r="C22" s="23">
+        <v>2.07890823253687</v>
+      </c>
+      <c r="L22" s="34">
+        <v>0.15</v>
+      </c>
+      <c r="M22" s="26">
         <f t="shared" si="4"/>
-        <v>1.0532994923857868</v>
-      </c>
-      <c r="D22" s="23">
-        <f t="shared" si="5"/>
-        <v>0.69796954314720816</v>
-      </c>
-      <c r="E22" s="26">
-        <v>0</v>
-      </c>
-      <c r="F22" s="23">
-        <f t="shared" si="6"/>
-        <v>0.11421319796954314</v>
-      </c>
-      <c r="G22" s="35">
-        <v>0</v>
-      </c>
-      <c r="H22" s="34">
-        <f t="shared" si="0"/>
-        <v>1.4923857868020305E-2</v>
-      </c>
-      <c r="I22" s="34">
-        <v>0</v>
-      </c>
-      <c r="J22" s="34">
-        <f>(2*K22+5)*Ref!$B$18</f>
-        <v>3.3000852791878164E-2</v>
-      </c>
-      <c r="K22" s="35">
-        <f t="shared" si="1"/>
-        <v>2.083451776649746</v>
-      </c>
-      <c r="L22" s="39">
-        <v>0.15</v>
-      </c>
-      <c r="M22" s="26">
-        <f t="shared" si="2"/>
-        <v>9.9492385786802053E-3</v>
+        <v>8.9523000000000033E-3</v>
       </c>
       <c r="N22" s="26">
         <v>0</v>
@@ -5667,60 +5809,60 @@
       <c r="S22" s="26">
         <v>1</v>
       </c>
-      <c r="T22" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
-      <c r="A23" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" s="23">
+      <c r="T22" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="32">
+        <f>0.203*0.9</f>
+        <v>0.18270000000000003</v>
+      </c>
+      <c r="C23" s="32">
+        <f>1.0533+((0.203-B23)*(14.4/16.9))</f>
+        <v>1.0705970414201182</v>
+      </c>
+      <c r="D23" s="23">
+        <f t="shared" si="7"/>
+        <v>0.69796954314720816</v>
+      </c>
+      <c r="E23" s="26">
+        <v>0</v>
+      </c>
+      <c r="F23" s="23">
+        <f t="shared" si="8"/>
+        <v>0.11421319796954314</v>
+      </c>
+      <c r="G23" s="32">
+        <v>0</v>
+      </c>
+      <c r="H23" s="31">
+        <f t="shared" si="2"/>
+        <v>1.3428450000000003E-2</v>
+      </c>
+      <c r="I23" s="31">
+        <v>0</v>
+      </c>
+      <c r="J23" s="31">
+        <f>(2*K23+5)*Ref!$B$18</f>
+        <v>3.2968139274265465E-2</v>
+      </c>
+      <c r="K23" s="32">
         <f t="shared" si="3"/>
-        <v>0.20304568527918784</v>
-      </c>
-      <c r="C23" s="23">
+        <v>2.07890823253687</v>
+      </c>
+      <c r="L23" s="34">
+        <v>0.15</v>
+      </c>
+      <c r="M23" s="26">
         <f t="shared" si="4"/>
-        <v>1.0532994923857868</v>
-      </c>
-      <c r="D23" s="23">
-        <f t="shared" si="5"/>
-        <v>0.69796954314720816</v>
-      </c>
-      <c r="E23" s="26">
-        <v>0</v>
-      </c>
-      <c r="F23" s="23">
-        <f t="shared" si="6"/>
-        <v>0.11421319796954314</v>
-      </c>
-      <c r="G23" s="35">
-        <v>0</v>
-      </c>
-      <c r="H23" s="34">
-        <f t="shared" si="0"/>
-        <v>1.4923857868020305E-2</v>
-      </c>
-      <c r="I23" s="34">
-        <v>0</v>
-      </c>
-      <c r="J23" s="34">
-        <f>(2*K23+5)*Ref!$B$18</f>
-        <v>3.3000852791878164E-2</v>
-      </c>
-      <c r="K23" s="35">
-        <f t="shared" si="1"/>
-        <v>2.083451776649746</v>
-      </c>
-      <c r="L23" s="39">
-        <v>0.15</v>
-      </c>
-      <c r="M23" s="26">
-        <f t="shared" si="2"/>
-        <v>9.9492385786802053E-3</v>
+        <v>8.9523000000000033E-3</v>
       </c>
       <c r="N23" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="26">
         <v>0.49</v>
@@ -5737,60 +5879,56 @@
       <c r="S23" s="26">
         <v>1</v>
       </c>
-      <c r="T23" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
-      <c r="A24" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="B24" s="23">
+      <c r="T23" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="32">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="C24" s="32">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="D24" s="32">
+        <v>0.96</v>
+      </c>
+      <c r="E24" s="26">
+        <v>0</v>
+      </c>
+      <c r="F24" s="32">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="G24" s="32">
+        <v>0</v>
+      </c>
+      <c r="H24" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="31">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="J24" s="26">
+        <f>5*Ref!$B$18</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K24" s="32">
         <f t="shared" si="3"/>
-        <v>0.20304568527918784</v>
-      </c>
-      <c r="C24" s="23">
+        <v>2.3711999999999995</v>
+      </c>
+      <c r="L24" s="29">
+        <v>0</v>
+      </c>
+      <c r="M24" s="26">
         <f t="shared" si="4"/>
-        <v>1.0532994923857868</v>
-      </c>
-      <c r="D24" s="23">
-        <f t="shared" si="5"/>
-        <v>0.69796954314720816</v>
-      </c>
-      <c r="E24" s="26">
-        <v>0</v>
-      </c>
-      <c r="F24" s="23">
-        <f t="shared" si="6"/>
-        <v>0.11421319796954314</v>
-      </c>
-      <c r="G24" s="35">
-        <v>0</v>
-      </c>
-      <c r="H24" s="34">
-        <f t="shared" si="0"/>
-        <v>1.4923857868020305E-2</v>
-      </c>
-      <c r="I24" s="34">
-        <v>0</v>
-      </c>
-      <c r="J24" s="34">
-        <f>(2*K24+5)*Ref!$B$18</f>
-        <v>3.3000852791878164E-2</v>
-      </c>
-      <c r="K24" s="35">
-        <f t="shared" si="1"/>
-        <v>2.083451776649746</v>
-      </c>
-      <c r="L24" s="39">
-        <v>0.15</v>
-      </c>
-      <c r="M24" s="26">
-        <f t="shared" si="2"/>
-        <v>9.9492385786802053E-3</v>
+        <v>0</v>
       </c>
       <c r="N24" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="26">
         <v>0.49</v>
@@ -5805,59 +5943,55 @@
         <v>0.04</v>
       </c>
       <c r="S24" s="26">
-        <v>1</v>
-      </c>
-      <c r="T24" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
-      <c r="A25" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="B25" s="35">
-        <f>0.203*0.9</f>
-        <v>0.18270000000000003</v>
-      </c>
-      <c r="C25" s="35">
-        <f>1.0533+((0.203-B25)*(14.4/16.9))</f>
-        <v>1.0705970414201182</v>
-      </c>
-      <c r="D25" s="23">
-        <f t="shared" si="5"/>
-        <v>0.69796954314720816</v>
+        <v>0</v>
+      </c>
+      <c r="T24" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="32">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="C25" s="32">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="D25" s="32">
+        <v>0.96</v>
       </c>
       <c r="E25" s="26">
         <v>0</v>
       </c>
-      <c r="F25" s="23">
-        <f t="shared" si="6"/>
-        <v>0.11421319796954314</v>
-      </c>
-      <c r="G25" s="35">
-        <v>0</v>
-      </c>
-      <c r="H25" s="34">
-        <f t="shared" si="0"/>
-        <v>1.3428450000000003E-2</v>
-      </c>
-      <c r="I25" s="34">
-        <v>0</v>
-      </c>
-      <c r="J25" s="34">
-        <f>(2*K25+5)*Ref!$B$18</f>
-        <v>3.2968139274265465E-2</v>
-      </c>
-      <c r="K25" s="35">
-        <f t="shared" si="1"/>
-        <v>2.07890823253687</v>
-      </c>
-      <c r="L25" s="39">
-        <v>0.15</v>
+      <c r="F25" s="32">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="G25" s="32">
+        <v>0</v>
+      </c>
+      <c r="H25" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="31">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="J25" s="26">
+        <f>5*Ref!$B$18</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K25" s="32">
+        <f t="shared" si="3"/>
+        <v>2.3711999999999995</v>
+      </c>
+      <c r="L25" s="33">
+        <v>0</v>
       </c>
       <c r="M25" s="26">
-        <f t="shared" si="2"/>
-        <v>8.9523000000000033E-3</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="N25" s="26">
         <v>0</v>
@@ -5875,59 +6009,59 @@
         <v>0.04</v>
       </c>
       <c r="S25" s="26">
-        <v>1</v>
-      </c>
-      <c r="T25" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
-      <c r="A26" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="T25" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="35">
-        <f>0.203*0.9</f>
-        <v>0.18270000000000003</v>
-      </c>
-      <c r="C26" s="35">
-        <f>1.0533+((0.203-B26)*(14.4/16.9))</f>
-        <v>1.0705970414201182</v>
+      <c r="B26" s="23">
+        <f>1.6/0.00788/1000</f>
+        <v>0.20304568527918784</v>
+      </c>
+      <c r="C26" s="23">
+        <f>8.3/0.00788/1000</f>
+        <v>1.0532994923857868</v>
       </c>
       <c r="D26" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D26:D27" si="9">5.5/0.00788/1000</f>
         <v>0.69796954314720816</v>
       </c>
       <c r="E26" s="26">
         <v>0</v>
       </c>
       <c r="F26" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F26:F27" si="10">0.9/0.00788/1000</f>
         <v>0.11421319796954314</v>
       </c>
-      <c r="G26" s="35">
-        <v>0</v>
-      </c>
-      <c r="H26" s="34">
-        <f t="shared" si="0"/>
-        <v>1.3428450000000003E-2</v>
-      </c>
-      <c r="I26" s="34">
-        <v>0</v>
-      </c>
-      <c r="J26" s="34">
+      <c r="G26" s="32">
+        <v>0</v>
+      </c>
+      <c r="H26" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="31">
+        <v>0</v>
+      </c>
+      <c r="J26" s="31">
         <f>(2*K26+5)*Ref!$B$18</f>
-        <v>3.2968139274265465E-2</v>
-      </c>
-      <c r="K26" s="35">
-        <f t="shared" si="1"/>
-        <v>2.07890823253687</v>
-      </c>
-      <c r="L26" s="39">
-        <v>0.15</v>
+        <v>3.2893401015228425E-2</v>
+      </c>
+      <c r="K26" s="32">
+        <f t="shared" si="3"/>
+        <v>2.0685279187817258</v>
+      </c>
+      <c r="L26" s="33">
+        <v>0</v>
       </c>
       <c r="M26" s="26">
-        <f t="shared" si="2"/>
-        <v>8.9523000000000033E-3</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="N26" s="26">
         <v>0</v>
@@ -5947,306 +6081,305 @@
       <c r="S26" s="26">
         <v>1</v>
       </c>
-      <c r="T26" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="T26" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>117</v>
-      </c>
-      <c r="B27" s="35">
+        <v>113</v>
+      </c>
+      <c r="B27" s="23">
+        <f>1.6/0.00788/1000</f>
+        <v>0.20304568527918784</v>
+      </c>
+      <c r="C27" s="23">
+        <f>8.3/0.00788/1000</f>
+        <v>1.0532994923857868</v>
+      </c>
+      <c r="D27" s="23">
+        <f t="shared" si="9"/>
+        <v>0.69796954314720816</v>
+      </c>
+      <c r="E27" s="26">
+        <v>0</v>
+      </c>
+      <c r="F27" s="23">
+        <f t="shared" si="10"/>
+        <v>0.11421319796954314</v>
+      </c>
+      <c r="G27" s="32">
+        <v>0</v>
+      </c>
+      <c r="H27" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="31">
+        <v>0</v>
+      </c>
+      <c r="J27" s="31">
+        <f>(2*K27+5)*Ref!$B$18</f>
+        <v>3.2893401015228425E-2</v>
+      </c>
+      <c r="K27" s="32">
+        <f t="shared" si="3"/>
+        <v>2.0685279187817258</v>
+      </c>
+      <c r="L27" s="33">
+        <v>0</v>
+      </c>
+      <c r="M27" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="26">
+        <v>0</v>
+      </c>
+      <c r="O27" s="26">
+        <v>0.49</v>
+      </c>
+      <c r="P27" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="Q27" s="26">
+        <v>200</v>
+      </c>
+      <c r="R27" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="S27" s="26">
+        <v>1</v>
+      </c>
+      <c r="T27" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="44">
         <v>0.34399999999999997</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C28" s="44">
         <v>0.85899999999999999</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D28" s="44">
         <v>0.96</v>
       </c>
-      <c r="E27" s="26">
-        <v>0</v>
-      </c>
-      <c r="F27" s="35">
+      <c r="E28" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="F28" s="44">
         <v>0.20699999999999999</v>
       </c>
-      <c r="G27" s="35">
-        <v>0</v>
-      </c>
-      <c r="H27" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="34">
+      <c r="G28" s="44">
+        <v>0</v>
+      </c>
+      <c r="H28" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="23">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="J27" s="26">
+      <c r="J28">
         <f>5*Ref!$B$18</f>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="K27" s="35">
-        <f t="shared" si="1"/>
-        <v>2.3711999999999995</v>
-      </c>
-      <c r="L27" s="32">
-        <v>0</v>
-      </c>
-      <c r="M27" s="26">
+      <c r="K28" s="44">
+        <f t="shared" si="3"/>
+        <v>2.4711999999999996</v>
+      </c>
+      <c r="L28" s="29">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0.49</v>
+      </c>
+      <c r="P28">
+        <v>0.6</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" ref="Q28:Q33" si="11">200*0.4</f>
+        <v>80</v>
+      </c>
+      <c r="R28">
+        <v>0.04</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="44">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="C29" s="44">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="D29" s="44">
+        <v>0.96</v>
+      </c>
+      <c r="E29" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="F29" s="44">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="G29" s="44">
+        <v>0</v>
+      </c>
+      <c r="H29" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N27" s="26">
-        <v>0</v>
-      </c>
-      <c r="O27" s="26">
-        <v>0.49</v>
-      </c>
-      <c r="P27" s="26">
-        <v>0.6</v>
-      </c>
-      <c r="Q27" s="26">
-        <v>200</v>
-      </c>
-      <c r="R27" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="S27" s="26">
-        <v>0</v>
-      </c>
-      <c r="T27" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
-      <c r="A28" t="s">
-        <v>118</v>
-      </c>
-      <c r="B28" s="35">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="C28" s="35">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="D28" s="35">
-        <v>0.96</v>
-      </c>
-      <c r="E28" s="26">
-        <v>0</v>
-      </c>
-      <c r="F28" s="35">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="G28" s="35">
-        <v>0</v>
-      </c>
-      <c r="H28" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="34">
+      <c r="I29" s="23">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="J28" s="26">
+      <c r="J29">
         <f>5*Ref!$B$18</f>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="K28" s="35">
-        <f t="shared" si="1"/>
-        <v>2.3711999999999995</v>
-      </c>
-      <c r="L28" s="36">
-        <v>0</v>
-      </c>
-      <c r="M28" s="26">
+      <c r="K29" s="44">
+        <f t="shared" si="3"/>
+        <v>2.4711999999999996</v>
+      </c>
+      <c r="L29" s="33">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0.49</v>
+      </c>
+      <c r="P29">
+        <v>0.6</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="R29">
+        <v>0.04</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="44">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="C30" s="44">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="D30" s="44">
+        <v>0.96</v>
+      </c>
+      <c r="E30" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="F30" s="44">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="G30" s="44">
+        <v>0</v>
+      </c>
+      <c r="H30" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N28" s="26">
-        <v>0</v>
-      </c>
-      <c r="O28" s="26">
+      <c r="I30" s="23">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="J30">
+        <f>5*Ref!$B$18</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K30" s="44">
+        <f t="shared" si="3"/>
+        <v>2.4711999999999996</v>
+      </c>
+      <c r="L30" s="29">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
         <v>0.49</v>
       </c>
-      <c r="P28" s="26">
+      <c r="P30">
         <v>0.6</v>
       </c>
-      <c r="Q28" s="26">
-        <v>200</v>
-      </c>
-      <c r="R28" s="26">
+      <c r="Q30">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="R30">
         <v>0.04</v>
       </c>
-      <c r="S28" s="26">
-        <v>0</v>
-      </c>
-      <c r="T28" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
-      <c r="A29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B29" s="23">
-        <f>1.6/0.00788/1000</f>
-        <v>0.20304568527918784</v>
-      </c>
-      <c r="C29" s="23">
-        <f>8.3/0.00788/1000</f>
-        <v>1.0532994923857868</v>
-      </c>
-      <c r="D29" s="23">
-        <f t="shared" ref="D29:D30" si="7">5.5/0.00788/1000</f>
-        <v>0.69796954314720816</v>
-      </c>
-      <c r="E29" s="26">
-        <v>0</v>
-      </c>
-      <c r="F29" s="23">
-        <f t="shared" ref="F29:F30" si="8">0.9/0.00788/1000</f>
-        <v>0.11421319796954314</v>
-      </c>
-      <c r="G29" s="35">
-        <v>0</v>
-      </c>
-      <c r="H29" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="34">
-        <v>0</v>
-      </c>
-      <c r="J29" s="34">
-        <f>(2*K29+5)*Ref!$B$18</f>
-        <v>3.2893401015228425E-2</v>
-      </c>
-      <c r="K29" s="35">
-        <f t="shared" si="1"/>
-        <v>2.0685279187817258</v>
-      </c>
-      <c r="L29" s="36">
-        <v>0</v>
-      </c>
-      <c r="M29" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N29" s="26">
-        <v>0</v>
-      </c>
-      <c r="O29" s="26">
-        <v>0.49</v>
-      </c>
-      <c r="P29" s="26">
-        <v>0.6</v>
-      </c>
-      <c r="Q29" s="26">
-        <v>200</v>
-      </c>
-      <c r="R29" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="S29" s="26">
-        <v>1</v>
-      </c>
-      <c r="T29" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="A30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B30" s="23">
-        <f>1.6/0.00788/1000</f>
-        <v>0.20304568527918784</v>
-      </c>
-      <c r="C30" s="23">
-        <f>8.3/0.00788/1000</f>
-        <v>1.0532994923857868</v>
-      </c>
-      <c r="D30" s="23">
-        <f t="shared" si="7"/>
-        <v>0.69796954314720816</v>
-      </c>
-      <c r="E30" s="26">
-        <v>0</v>
-      </c>
-      <c r="F30" s="23">
-        <f t="shared" si="8"/>
-        <v>0.11421319796954314</v>
-      </c>
-      <c r="G30" s="35">
-        <v>0</v>
-      </c>
-      <c r="H30" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="34">
-        <v>0</v>
-      </c>
-      <c r="J30" s="34">
-        <f>(2*K30+5)*Ref!$B$18</f>
-        <v>3.2893401015228425E-2</v>
-      </c>
-      <c r="K30" s="35">
-        <f t="shared" si="1"/>
-        <v>2.0685279187817258</v>
-      </c>
-      <c r="L30" s="36">
-        <v>0</v>
-      </c>
-      <c r="M30" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="26">
-        <v>0</v>
-      </c>
-      <c r="O30" s="26">
-        <v>0.49</v>
-      </c>
-      <c r="P30" s="26">
-        <v>0.6</v>
-      </c>
-      <c r="Q30" s="26">
-        <v>200</v>
-      </c>
-      <c r="R30" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="S30" s="26">
-        <v>1</v>
-      </c>
-      <c r="T30" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22">
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" s="49">
+        <v>115</v>
+      </c>
+      <c r="B31" s="44">
         <v>0.34399999999999997</v>
       </c>
-      <c r="C31" s="49">
+      <c r="C31" s="44">
         <v>0.85899999999999999</v>
       </c>
-      <c r="D31" s="49">
+      <c r="D31" s="44">
         <v>0.96</v>
       </c>
       <c r="E31" s="26">
         <v>0.1</v>
       </c>
-      <c r="F31" s="49">
+      <c r="F31" s="44">
         <v>0.20699999999999999</v>
       </c>
-      <c r="G31" s="49">
-        <v>0</v>
-      </c>
-      <c r="H31" s="50">
-        <f t="shared" si="0"/>
+      <c r="G31" s="44">
+        <v>0</v>
+      </c>
+      <c r="H31" s="23">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I31" s="23">
@@ -6256,15 +6389,15 @@
         <f>5*Ref!$B$18</f>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="K31" s="49">
-        <f t="shared" si="1"/>
+      <c r="K31" s="44">
+        <f t="shared" si="3"/>
         <v>2.4711999999999996</v>
       </c>
-      <c r="L31" s="32">
+      <c r="L31" s="33">
         <v>0</v>
       </c>
       <c r="M31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N31">
@@ -6277,7 +6410,7 @@
         <v>0.6</v>
       </c>
       <c r="Q31">
-        <f t="shared" ref="Q31:Q36" si="9">200*0.4</f>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="R31">
@@ -6286,328 +6419,326 @@
       <c r="S31">
         <v>0</v>
       </c>
-      <c r="T31" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="T31" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" s="49">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="C32" s="49">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="D32" s="49">
-        <v>0.96</v>
+        <v>116</v>
+      </c>
+      <c r="B32" s="23">
+        <f>1.6/0.00788/1000</f>
+        <v>0.20304568527918784</v>
+      </c>
+      <c r="C32" s="23">
+        <f>8.3/0.00788/1000</f>
+        <v>1.0532994923857868</v>
+      </c>
+      <c r="D32" s="23">
+        <f t="shared" ref="D32:D33" si="12">5.5/0.00788/1000</f>
+        <v>0.69796954314720816</v>
       </c>
       <c r="E32" s="26">
         <v>0.1</v>
       </c>
-      <c r="F32" s="49">
+      <c r="F32" s="23">
+        <f t="shared" ref="F32:F33" si="13">0.9/0.00788/1000</f>
+        <v>0.11421319796954314</v>
+      </c>
+      <c r="G32" s="32">
+        <v>0</v>
+      </c>
+      <c r="H32" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="31">
+        <v>0</v>
+      </c>
+      <c r="J32" s="31">
+        <f>(2*K32+5)*Ref!$B$18</f>
+        <v>3.3613401015228424E-2</v>
+      </c>
+      <c r="K32" s="32">
+        <f t="shared" si="3"/>
+        <v>2.1685279187817259</v>
+      </c>
+      <c r="L32" s="33">
+        <v>0</v>
+      </c>
+      <c r="M32" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="26">
+        <v>0</v>
+      </c>
+      <c r="O32" s="26">
+        <v>0.49</v>
+      </c>
+      <c r="P32" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="Q32" s="26">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="R32" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="S32" s="26">
+        <v>1</v>
+      </c>
+      <c r="T32" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="23">
+        <f>1.6/0.00788/1000</f>
+        <v>0.20304568527918784</v>
+      </c>
+      <c r="C33" s="23">
+        <f>8.3/0.00788/1000</f>
+        <v>1.0532994923857868</v>
+      </c>
+      <c r="D33" s="23">
+        <f t="shared" si="12"/>
+        <v>0.69796954314720816</v>
+      </c>
+      <c r="E33" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="F33" s="23">
+        <f t="shared" si="13"/>
+        <v>0.11421319796954314</v>
+      </c>
+      <c r="G33" s="32">
+        <v>0</v>
+      </c>
+      <c r="H33" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="31">
+        <v>0</v>
+      </c>
+      <c r="J33" s="31">
+        <f>(2*K33+5)*Ref!$B$18</f>
+        <v>3.3613401015228424E-2</v>
+      </c>
+      <c r="K33" s="32">
+        <f t="shared" si="3"/>
+        <v>2.1685279187817259</v>
+      </c>
+      <c r="L33" s="33">
+        <v>0</v>
+      </c>
+      <c r="M33" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="26">
+        <v>0</v>
+      </c>
+      <c r="O33" s="26">
+        <v>0.49</v>
+      </c>
+      <c r="P33" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="Q33" s="26">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="R33" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="S33" s="26">
+        <v>1</v>
+      </c>
+      <c r="T33" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="32">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="C34" s="32">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="D34" s="32">
+        <v>0.96</v>
+      </c>
+      <c r="E34" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="F34" s="32">
         <v>0.20699999999999999</v>
       </c>
-      <c r="G32" s="49">
-        <v>0</v>
-      </c>
-      <c r="H32" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="23">
+      <c r="G34" s="32">
+        <v>0</v>
+      </c>
+      <c r="H34" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="31">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="J32">
+      <c r="J34" s="26">
         <f>5*Ref!$B$18</f>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="K32" s="49">
-        <f t="shared" si="1"/>
-        <v>2.4711999999999996</v>
-      </c>
-      <c r="L32" s="36">
-        <v>0</v>
-      </c>
-      <c r="M32">
+      <c r="K34" s="32">
+        <f t="shared" si="3"/>
+        <v>2.6211999999999995</v>
+      </c>
+      <c r="L34" s="29">
+        <v>0</v>
+      </c>
+      <c r="M34" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="26">
+        <v>0</v>
+      </c>
+      <c r="O34" s="26">
+        <v>0.49</v>
+      </c>
+      <c r="P34" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="Q34" s="26">
+        <v>0</v>
+      </c>
+      <c r="R34" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="S34" s="26">
+        <v>0</v>
+      </c>
+      <c r="T34" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="32">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="C35" s="32">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="D35" s="32">
+        <v>0.96</v>
+      </c>
+      <c r="E35" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="F35" s="32">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="G35" s="32">
+        <v>0</v>
+      </c>
+      <c r="H35" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0.49</v>
-      </c>
-      <c r="P32">
-        <v>0.6</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="R32">
-        <v>0.04</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>121</v>
-      </c>
-      <c r="B33" s="49">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="C33" s="49">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="D33" s="49">
-        <v>0.96</v>
-      </c>
-      <c r="E33" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="F33" s="49">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="G33" s="49">
-        <v>0</v>
-      </c>
-      <c r="H33" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="23">
+      <c r="I35" s="31">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="J33">
+      <c r="J35" s="26">
         <f>5*Ref!$B$18</f>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="K33" s="49">
-        <f t="shared" si="1"/>
-        <v>2.4711999999999996</v>
-      </c>
-      <c r="L33" s="32">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
+      <c r="K35" s="32">
+        <f t="shared" si="3"/>
+        <v>2.6211999999999995</v>
+      </c>
+      <c r="L35" s="33">
+        <v>0</v>
+      </c>
+      <c r="M35" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="26">
+        <v>0</v>
+      </c>
+      <c r="O35" s="26">
         <v>0.49</v>
       </c>
-      <c r="P33">
+      <c r="P35" s="26">
         <v>0.6</v>
       </c>
-      <c r="Q33">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="R33">
+      <c r="Q35" s="26">
+        <v>0</v>
+      </c>
+      <c r="R35" s="26">
         <v>0.04</v>
       </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>122</v>
-      </c>
-      <c r="B34" s="49">
+      <c r="S35" s="26">
+        <v>0</v>
+      </c>
+      <c r="T35" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" s="32">
         <v>0.34399999999999997</v>
       </c>
-      <c r="C34" s="49">
+      <c r="C36" s="32">
         <v>0.85899999999999999</v>
       </c>
-      <c r="D34" s="49">
+      <c r="D36" s="32">
         <v>0.96</v>
       </c>
-      <c r="E34" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="F34" s="49">
+      <c r="E36" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="F36" s="32">
         <v>0.20699999999999999</v>
       </c>
-      <c r="G34" s="49">
-        <v>0</v>
-      </c>
-      <c r="H34" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="23">
+      <c r="G36" s="32">
+        <v>0</v>
+      </c>
+      <c r="H36" s="30">
+        <f t="shared" ref="H36:H41" si="14">(B36*O36*L36)</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="31">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="J34">
+      <c r="J36" s="26">
         <f>5*Ref!$B$18</f>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="K34" s="49">
-        <f t="shared" si="1"/>
-        <v>2.4711999999999996</v>
-      </c>
-      <c r="L34" s="36">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0.49</v>
-      </c>
-      <c r="P34">
-        <v>0.6</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="R34">
-        <v>0.04</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>123</v>
-      </c>
-      <c r="B35" s="23">
-        <f>1.6/0.00788/1000</f>
-        <v>0.20304568527918784</v>
-      </c>
-      <c r="C35" s="23">
-        <f>8.3/0.00788/1000</f>
-        <v>1.0532994923857868</v>
-      </c>
-      <c r="D35" s="23">
-        <f t="shared" ref="D35:D36" si="10">5.5/0.00788/1000</f>
-        <v>0.69796954314720816</v>
-      </c>
-      <c r="E35" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="F35" s="23">
-        <f t="shared" ref="F35:F36" si="11">0.9/0.00788/1000</f>
-        <v>0.11421319796954314</v>
-      </c>
-      <c r="G35" s="35">
-        <v>0</v>
-      </c>
-      <c r="H35" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="34">
-        <v>0</v>
-      </c>
-      <c r="J35" s="34">
-        <f>(2*K35+5)*Ref!$B$18</f>
-        <v>3.3613401015228424E-2</v>
-      </c>
-      <c r="K35" s="35">
-        <f t="shared" si="1"/>
-        <v>2.1685279187817259</v>
-      </c>
-      <c r="L35" s="36">
-        <v>0</v>
-      </c>
-      <c r="M35" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N35" s="26">
-        <v>0</v>
-      </c>
-      <c r="O35" s="26">
-        <v>0.49</v>
-      </c>
-      <c r="P35" s="26">
-        <v>0.6</v>
-      </c>
-      <c r="Q35" s="26">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="R35" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="S35" s="26">
-        <v>1</v>
-      </c>
-      <c r="T35" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>124</v>
-      </c>
-      <c r="B36" s="23">
-        <f>1.6/0.00788/1000</f>
-        <v>0.20304568527918784</v>
-      </c>
-      <c r="C36" s="23">
-        <f>8.3/0.00788/1000</f>
-        <v>1.0532994923857868</v>
-      </c>
-      <c r="D36" s="23">
-        <f t="shared" si="10"/>
-        <v>0.69796954314720816</v>
-      </c>
-      <c r="E36" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="F36" s="23">
-        <f t="shared" si="11"/>
-        <v>0.11421319796954314</v>
-      </c>
-      <c r="G36" s="35">
-        <v>0</v>
-      </c>
-      <c r="H36" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="34">
-        <v>0</v>
-      </c>
-      <c r="J36" s="34">
-        <f>(2*K36+5)*Ref!$B$18</f>
-        <v>3.3613401015228424E-2</v>
-      </c>
-      <c r="K36" s="35">
-        <f t="shared" si="1"/>
-        <v>2.1685279187817259</v>
-      </c>
-      <c r="L36" s="36">
+      <c r="K36" s="32">
+        <f t="shared" ref="K36:K41" si="15">SUM(B36:I36)</f>
+        <v>2.6211999999999995</v>
+      </c>
+      <c r="L36" s="29">
         <v>0</v>
       </c>
       <c r="M36" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="M36:M41" si="16">H36*((1-P36)/P36)</f>
         <v>0</v>
       </c>
       <c r="N36" s="26">
@@ -6620,62 +6751,63 @@
         <v>0.6</v>
       </c>
       <c r="Q36" s="26">
-        <f t="shared" si="9"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R36" s="26">
         <v>0.04</v>
       </c>
       <c r="S36" s="26">
-        <v>1</v>
-      </c>
-      <c r="T36" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="B37" s="35">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="C37" s="35">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="D37" s="35">
+        <v>0</v>
+      </c>
+      <c r="T36" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="32">
+        <f>0.344*0.9</f>
+        <v>0.30959999999999999</v>
+      </c>
+      <c r="C37" s="32">
+        <f t="shared" ref="C37" si="17">0.859+((0.344-B37)*(14/16.9))</f>
+        <v>0.88749704142011832</v>
+      </c>
+      <c r="D37" s="32">
         <v>0.96</v>
       </c>
       <c r="E37" s="26">
         <v>0.25</v>
       </c>
-      <c r="F37" s="35">
+      <c r="F37" s="32">
         <v>0.20699999999999999</v>
       </c>
-      <c r="G37" s="35">
-        <v>0</v>
-      </c>
-      <c r="H37" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="34">
+      <c r="G37" s="32">
+        <v>0</v>
+      </c>
+      <c r="H37" s="31">
+        <f t="shared" si="14"/>
+        <v>1.5170399999999999E-2</v>
+      </c>
+      <c r="I37" s="31">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="J37" s="26">
-        <f>5*Ref!$B$18</f>
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="K37" s="35">
-        <f t="shared" si="1"/>
-        <v>2.6211999999999995</v>
-      </c>
-      <c r="L37" s="32">
-        <v>0</v>
+        <f>5*Ref!$B$18+2.76*2*(D37+M37)*Ref!$B$18</f>
+        <v>3.7278097459199994E-2</v>
+      </c>
+      <c r="K37" s="32">
+        <f t="shared" si="15"/>
+        <v>2.6304674414201181</v>
+      </c>
+      <c r="L37" s="33">
+        <v>0.1</v>
       </c>
       <c r="M37" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1.01136E-2</v>
       </c>
       <c r="N37" s="26">
         <v>0</v>
@@ -6695,53 +6827,55 @@
       <c r="S37" s="26">
         <v>0</v>
       </c>
-      <c r="T37" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
-      <c r="A38" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="B38" s="35">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="C38" s="35">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="D38" s="35">
+      <c r="T37" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" s="32">
+        <f>0.344*0.9</f>
+        <v>0.30959999999999999</v>
+      </c>
+      <c r="C38" s="32">
+        <f t="shared" ref="C38" si="18">0.859+((0.344-B38)*(14/16.9))</f>
+        <v>0.88749704142011832</v>
+      </c>
+      <c r="D38" s="32">
         <v>0.96</v>
       </c>
       <c r="E38" s="26">
         <v>0.25</v>
       </c>
-      <c r="F38" s="35">
+      <c r="F38" s="32">
         <v>0.20699999999999999</v>
       </c>
-      <c r="G38" s="35">
-        <v>0</v>
-      </c>
-      <c r="H38" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="34">
+      <c r="G38" s="32">
+        <v>0</v>
+      </c>
+      <c r="H38" s="31">
+        <f t="shared" ref="H38" si="19">(B38*O38*L38)</f>
+        <v>1.5170399999999999E-2</v>
+      </c>
+      <c r="I38" s="31">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="J38" s="26">
-        <f>5*Ref!$B$18</f>
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="K38" s="35">
-        <f t="shared" si="1"/>
-        <v>2.6211999999999995</v>
-      </c>
-      <c r="L38" s="36">
-        <v>0</v>
+        <f>5*Ref!$B$18+2.76*2*(D38+M38)*Ref!$B$18</f>
+        <v>3.7278097459199994E-2</v>
+      </c>
+      <c r="K38" s="32">
+        <f t="shared" ref="K38" si="20">SUM(B38:I38)</f>
+        <v>2.6304674414201181</v>
+      </c>
+      <c r="L38" s="33">
+        <v>0.1</v>
       </c>
       <c r="M38" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="M38" si="21">H38*((1-P38)/P38)</f>
+        <v>1.01136E-2</v>
       </c>
       <c r="N38" s="26">
         <v>0</v>
@@ -6761,52 +6895,52 @@
       <c r="S38" s="26">
         <v>0</v>
       </c>
-      <c r="T38" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="T38" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>137</v>
-      </c>
-      <c r="B39" s="35">
+        <v>131</v>
+      </c>
+      <c r="B39" s="32">
         <v>0.34399999999999997</v>
       </c>
-      <c r="C39" s="35">
+      <c r="C39" s="32">
         <v>0.85899999999999999</v>
       </c>
-      <c r="D39" s="35">
+      <c r="D39" s="32">
         <v>0.96</v>
       </c>
       <c r="E39" s="26">
         <v>0.25</v>
       </c>
-      <c r="F39" s="35">
+      <c r="F39" s="32">
         <v>0.20699999999999999</v>
       </c>
-      <c r="G39" s="35">
-        <v>0</v>
-      </c>
-      <c r="H39" s="33">
-        <f t="shared" ref="H39:H44" si="12">(B39*O39*L39)</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="34">
+      <c r="G39" s="32">
+        <v>0</v>
+      </c>
+      <c r="H39" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="31">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="J39" s="26">
         <f>5*Ref!$B$18</f>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="K39" s="35">
-        <f t="shared" ref="K39:K44" si="13">SUM(B39:I39)</f>
+      <c r="K39" s="32">
+        <f t="shared" si="15"/>
         <v>2.6211999999999995</v>
       </c>
-      <c r="L39" s="32">
+      <c r="L39" s="33">
         <v>0</v>
       </c>
       <c r="M39" s="26">
-        <f t="shared" ref="M39:M44" si="14">H39*((1-P39)/P39)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N39" s="26">
@@ -6827,55 +6961,57 @@
       <c r="S39" s="26">
         <v>0</v>
       </c>
-      <c r="T39" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
+      <c r="T39" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>145</v>
-      </c>
-      <c r="B40" s="35">
-        <f>0.344*0.9</f>
-        <v>0.30959999999999999</v>
-      </c>
-      <c r="C40" s="35">
-        <f t="shared" ref="C40" si="15">0.859+((0.344-B40)*(14/16.9))</f>
-        <v>0.88749704142011832</v>
-      </c>
-      <c r="D40" s="35">
-        <v>0.96</v>
+        <v>132</v>
+      </c>
+      <c r="B40" s="23">
+        <f>1.6/0.00788/1000</f>
+        <v>0.20304568527918784</v>
+      </c>
+      <c r="C40" s="23">
+        <f>8.3/0.00788/1000</f>
+        <v>1.0532994923857868</v>
+      </c>
+      <c r="D40" s="23">
+        <f>5.5/0.00788/1000</f>
+        <v>0.69796954314720816</v>
       </c>
       <c r="E40" s="26">
         <v>0.25</v>
       </c>
-      <c r="F40" s="35">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="G40" s="35">
-        <v>0</v>
-      </c>
-      <c r="H40" s="34">
-        <f t="shared" si="12"/>
-        <v>1.5170399999999999E-2</v>
-      </c>
-      <c r="I40" s="34">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="J40" s="26">
-        <f>5*Ref!$B$18+2.76*2*(D40+M40)*Ref!$B$18</f>
-        <v>3.7278097459199994E-2</v>
-      </c>
-      <c r="K40" s="35">
-        <f t="shared" si="13"/>
-        <v>2.6304674414201181</v>
-      </c>
-      <c r="L40" s="36">
-        <v>0.1</v>
+      <c r="F40" s="23">
+        <f>0.9/0.00788/1000</f>
+        <v>0.11421319796954314</v>
+      </c>
+      <c r="G40" s="32">
+        <v>0</v>
+      </c>
+      <c r="H40" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="31">
+        <v>0</v>
+      </c>
+      <c r="J40" s="31">
+        <f>(2*K40+5)*Ref!$B$18</f>
+        <v>3.4693401015228428E-2</v>
+      </c>
+      <c r="K40" s="32">
+        <f t="shared" si="15"/>
+        <v>2.3185279187817258</v>
+      </c>
+      <c r="L40" s="33">
+        <v>0</v>
       </c>
       <c r="M40" s="26">
-        <f t="shared" si="14"/>
-        <v>1.01136E-2</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="N40" s="26">
         <v>0</v>
@@ -6893,57 +7029,59 @@
         <v>0.04</v>
       </c>
       <c r="S40" s="26">
-        <v>0</v>
-      </c>
-      <c r="T40" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
+        <v>1</v>
+      </c>
+      <c r="T40" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>148</v>
-      </c>
-      <c r="B41" s="35">
-        <f>0.344*0.9</f>
-        <v>0.30959999999999999</v>
-      </c>
-      <c r="C41" s="35">
-        <f t="shared" ref="C41" si="16">0.859+((0.344-B41)*(14/16.9))</f>
-        <v>0.88749704142011832</v>
-      </c>
-      <c r="D41" s="35">
-        <v>0.96</v>
+        <v>139</v>
+      </c>
+      <c r="B41" s="32">
+        <f>0.203*0.9</f>
+        <v>0.18270000000000003</v>
+      </c>
+      <c r="C41" s="32">
+        <f>1.0533+((0.203-B41)*(14.4/16.9))</f>
+        <v>1.0705970414201182</v>
+      </c>
+      <c r="D41" s="23">
+        <f>5.5/0.00788/1000</f>
+        <v>0.69796954314720816</v>
       </c>
       <c r="E41" s="26">
         <v>0.25</v>
       </c>
-      <c r="F41" s="35">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="G41" s="35">
-        <v>0</v>
-      </c>
-      <c r="H41" s="34">
-        <f t="shared" ref="H41" si="17">(B41*O41*L41)</f>
-        <v>1.5170399999999999E-2</v>
-      </c>
-      <c r="I41" s="34">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="J41" s="26">
-        <f>5*Ref!$B$18+2.76*2*(D41+M41)*Ref!$B$18</f>
-        <v>3.7278097459199994E-2</v>
-      </c>
-      <c r="K41" s="35">
-        <f t="shared" ref="K41" si="18">SUM(B41:I41)</f>
-        <v>2.6304674414201181</v>
-      </c>
-      <c r="L41" s="36">
-        <v>0.1</v>
+      <c r="F41" s="23">
+        <f>0.9/0.00788/1000</f>
+        <v>0.11421319796954314</v>
+      </c>
+      <c r="G41" s="32">
+        <v>0</v>
+      </c>
+      <c r="H41" s="31">
+        <f t="shared" si="14"/>
+        <v>1.3428450000000003E-2</v>
+      </c>
+      <c r="I41" s="31">
+        <v>0</v>
+      </c>
+      <c r="J41" s="31">
+        <f>(2*K41+5)*Ref!$B$18</f>
+        <v>3.4768139274265461E-2</v>
+      </c>
+      <c r="K41" s="32">
+        <f t="shared" si="15"/>
+        <v>2.32890823253687</v>
+      </c>
+      <c r="L41" s="34">
+        <v>0.15</v>
       </c>
       <c r="M41" s="26">
-        <f t="shared" ref="M41" si="19">H41*((1-P41)/P41)</f>
-        <v>1.01136E-2</v>
+        <f t="shared" si="16"/>
+        <v>8.9523000000000033E-3</v>
       </c>
       <c r="N41" s="26">
         <v>0</v>
@@ -6961,55 +7099,59 @@
         <v>0.04</v>
       </c>
       <c r="S41" s="26">
-        <v>0</v>
-      </c>
-      <c r="T41" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
+        <v>1</v>
+      </c>
+      <c r="T41" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>138</v>
-      </c>
-      <c r="B42" s="35">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="C42" s="35">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="D42" s="35">
-        <v>0.96</v>
+        <v>142</v>
+      </c>
+      <c r="B42" s="32">
+        <f>0.203*0.9</f>
+        <v>0.18270000000000003</v>
+      </c>
+      <c r="C42" s="32">
+        <f>1.0533+((0.203-B42)*(14.4/16.9))</f>
+        <v>1.0705970414201182</v>
+      </c>
+      <c r="D42" s="23">
+        <f>5.5/0.00788/1000</f>
+        <v>0.69796954314720816</v>
       </c>
       <c r="E42" s="26">
         <v>0.25</v>
       </c>
-      <c r="F42" s="35">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="G42" s="35">
-        <v>0</v>
-      </c>
-      <c r="H42" s="34">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="34">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="J42" s="26">
-        <f>5*Ref!$B$18</f>
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="K42" s="35">
-        <f t="shared" si="13"/>
-        <v>2.6211999999999995</v>
-      </c>
-      <c r="L42" s="36">
-        <v>0</v>
+      <c r="F42" s="23">
+        <f>0.9/0.00788/1000</f>
+        <v>0.11421319796954314</v>
+      </c>
+      <c r="G42" s="32">
+        <v>0</v>
+      </c>
+      <c r="H42" s="31">
+        <f t="shared" ref="H42" si="22">(B42*O42*L42)</f>
+        <v>1.3428450000000003E-2</v>
+      </c>
+      <c r="I42" s="31">
+        <v>0</v>
+      </c>
+      <c r="J42" s="31">
+        <f>(2*K42+5)*Ref!$B$18</f>
+        <v>3.4768139274265461E-2</v>
+      </c>
+      <c r="K42" s="32">
+        <f t="shared" ref="K42" si="23">SUM(B42:I42)</f>
+        <v>2.32890823253687</v>
+      </c>
+      <c r="L42" s="34">
+        <v>0.15</v>
       </c>
       <c r="M42" s="26">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" ref="M42" si="24">H42*((1-P42)/P42)</f>
+        <v>8.9523000000000033E-3</v>
       </c>
       <c r="N42" s="26">
         <v>0</v>
@@ -7027,15 +7169,15 @@
         <v>0.04</v>
       </c>
       <c r="S42" s="26">
-        <v>0</v>
-      </c>
-      <c r="T42" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
+        <v>1</v>
+      </c>
+      <c r="T42" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B43" s="23">
         <f>1.6/0.00788/1000</f>
@@ -7056,29 +7198,29 @@
         <f>0.9/0.00788/1000</f>
         <v>0.11421319796954314</v>
       </c>
-      <c r="G43" s="35">
-        <v>0</v>
-      </c>
-      <c r="H43" s="34">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="34">
-        <v>0</v>
-      </c>
-      <c r="J43" s="34">
+      <c r="G43" s="32">
+        <v>0</v>
+      </c>
+      <c r="H43" s="31">
+        <f>(B43*O43*L43)</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="31">
+        <v>0</v>
+      </c>
+      <c r="J43" s="31">
         <f>(2*K43+5)*Ref!$B$18</f>
         <v>3.4693401015228428E-2</v>
       </c>
-      <c r="K43" s="35">
-        <f t="shared" si="13"/>
+      <c r="K43" s="32">
+        <f>SUM(B43:I43)</f>
         <v>2.3185279187817258</v>
       </c>
-      <c r="L43" s="36">
+      <c r="L43" s="33">
         <v>0</v>
       </c>
       <c r="M43" s="26">
-        <f t="shared" si="14"/>
+        <f>H43*((1-P43)/P43)</f>
         <v>0</v>
       </c>
       <c r="N43" s="26">
@@ -7099,57 +7241,53 @@
       <c r="S43" s="26">
         <v>1</v>
       </c>
-      <c r="T43" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="A44" t="s">
-        <v>146</v>
-      </c>
-      <c r="B44" s="35">
-        <f>0.203*0.9</f>
-        <v>0.18270000000000003</v>
-      </c>
-      <c r="C44" s="35">
-        <f>1.0533+((0.203-B44)*(14.4/16.9))</f>
-        <v>1.0705970414201182</v>
-      </c>
-      <c r="D44" s="23">
-        <f>5.5/0.00788/1000</f>
-        <v>0.69796954314720816</v>
+      <c r="T43" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" s="32">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="C44" s="32">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="D44" s="32">
+        <v>0.96</v>
       </c>
       <c r="E44" s="26">
-        <v>0.25</v>
-      </c>
-      <c r="F44" s="23">
-        <f>0.9/0.00788/1000</f>
-        <v>0.11421319796954314</v>
-      </c>
-      <c r="G44" s="35">
-        <v>0</v>
-      </c>
-      <c r="H44" s="34">
-        <f t="shared" si="12"/>
-        <v>1.3428450000000003E-2</v>
-      </c>
-      <c r="I44" s="34">
-        <v>0</v>
-      </c>
-      <c r="J44" s="34">
-        <f>(2*K44+5)*Ref!$B$18</f>
-        <v>3.4768139274265461E-2</v>
-      </c>
-      <c r="K44" s="35">
-        <f t="shared" si="13"/>
-        <v>2.32890823253687</v>
-      </c>
-      <c r="L44" s="39">
-        <v>0.15</v>
+        <v>0</v>
+      </c>
+      <c r="F44" s="32">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="G44" s="32">
+        <v>0</v>
+      </c>
+      <c r="H44" s="30">
+        <f t="shared" ref="H44:H46" si="25">(B44*O44*L44)</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="31">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="J44" s="26">
+        <f>5*Ref!$B$18</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K44" s="32">
+        <f t="shared" ref="K44:K46" si="26">SUM(B44:I44)</f>
+        <v>2.3711999999999995</v>
+      </c>
+      <c r="L44" s="29">
+        <v>0</v>
       </c>
       <c r="M44" s="26">
-        <f t="shared" si="14"/>
-        <v>8.9523000000000033E-3</v>
+        <f>H44*((1-P44)/P44)</f>
+        <v>0</v>
       </c>
       <c r="N44" s="26">
         <v>0</v>
@@ -7161,414 +7299,205 @@
         <v>0.6</v>
       </c>
       <c r="Q44" s="26">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R44" s="26">
         <v>0.04</v>
       </c>
       <c r="S44" s="26">
-        <v>1</v>
-      </c>
-      <c r="T44" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
+        <v>0</v>
+      </c>
+      <c r="T44" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>149</v>
-      </c>
-      <c r="B45" s="35">
-        <f>0.203*0.9</f>
-        <v>0.18270000000000003</v>
-      </c>
-      <c r="C45" s="35">
-        <f>1.0533+((0.203-B45)*(14.4/16.9))</f>
-        <v>1.0705970414201182</v>
-      </c>
-      <c r="D45" s="23">
-        <f>5.5/0.00788/1000</f>
-        <v>0.69796954314720816</v>
+        <v>163</v>
+      </c>
+      <c r="B45" s="44">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="C45" s="44">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="D45" s="44">
+        <v>0.96</v>
       </c>
       <c r="E45" s="26">
-        <v>0.25</v>
-      </c>
-      <c r="F45" s="23">
-        <f>0.9/0.00788/1000</f>
-        <v>0.11421319796954314</v>
-      </c>
-      <c r="G45" s="35">
-        <v>0</v>
-      </c>
-      <c r="H45" s="34">
-        <f t="shared" ref="H45" si="20">(B45*O45*L45)</f>
-        <v>1.3428450000000003E-2</v>
-      </c>
-      <c r="I45" s="34">
-        <v>0</v>
-      </c>
-      <c r="J45" s="34">
-        <f>(2*K45+5)*Ref!$B$18</f>
-        <v>3.4768139274265461E-2</v>
-      </c>
-      <c r="K45" s="35">
-        <f t="shared" ref="K45" si="21">SUM(B45:I45)</f>
-        <v>2.32890823253687</v>
-      </c>
-      <c r="L45" s="39">
-        <v>0.15</v>
-      </c>
-      <c r="M45" s="26">
-        <f t="shared" ref="M45" si="22">H45*((1-P45)/P45)</f>
-        <v>8.9523000000000033E-3</v>
-      </c>
-      <c r="N45" s="26">
-        <v>0</v>
-      </c>
-      <c r="O45" s="26">
-        <v>0.49</v>
-      </c>
-      <c r="P45" s="26">
-        <v>0.6</v>
-      </c>
-      <c r="Q45" s="26">
-        <v>0</v>
-      </c>
-      <c r="R45" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="S45" s="26">
-        <v>1</v>
-      </c>
-      <c r="T45" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
-      <c r="A46" t="s">
-        <v>140</v>
-      </c>
-      <c r="B46" s="23">
-        <f>1.6/0.00788/1000</f>
-        <v>0.20304568527918784</v>
-      </c>
-      <c r="C46" s="23">
-        <f>8.3/0.00788/1000</f>
-        <v>1.0532994923857868</v>
-      </c>
-      <c r="D46" s="23">
-        <f>5.5/0.00788/1000</f>
-        <v>0.69796954314720816</v>
-      </c>
-      <c r="E46" s="26">
-        <v>0.25</v>
-      </c>
-      <c r="F46" s="23">
-        <f>0.9/0.00788/1000</f>
-        <v>0.11421319796954314</v>
-      </c>
-      <c r="G46" s="35">
-        <v>0</v>
-      </c>
-      <c r="H46" s="34">
-        <f>(B46*O46*L46)</f>
-        <v>0</v>
-      </c>
-      <c r="I46" s="34">
-        <v>0</v>
-      </c>
-      <c r="J46" s="34">
-        <f>(2*K46+5)*Ref!$B$18</f>
-        <v>3.4693401015228428E-2</v>
-      </c>
-      <c r="K46" s="35">
-        <f>SUM(B46:I46)</f>
-        <v>2.3185279187817258</v>
-      </c>
-      <c r="L46" s="36">
-        <v>0</v>
-      </c>
-      <c r="M46" s="26">
-        <f>H46*((1-P46)/P46)</f>
-        <v>0</v>
-      </c>
-      <c r="N46" s="26">
-        <v>0</v>
-      </c>
-      <c r="O46" s="26">
-        <v>0.49</v>
-      </c>
-      <c r="P46" s="26">
-        <v>0.6</v>
-      </c>
-      <c r="Q46" s="26">
-        <v>0</v>
-      </c>
-      <c r="R46" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="S46" s="26">
-        <v>1</v>
-      </c>
-      <c r="T46" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" s="26" customFormat="1">
-      <c r="A47" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="B47" s="35">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="C47" s="35">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="D47" s="35">
-        <v>0.96</v>
-      </c>
-      <c r="E47" s="26">
-        <v>0</v>
-      </c>
-      <c r="F47" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="F45" s="44">
         <v>0.20699999999999999</v>
       </c>
-      <c r="G47" s="35">
-        <v>0</v>
-      </c>
-      <c r="H47" s="33">
-        <f t="shared" ref="H47:H49" si="23">(B47*O47*L47)</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="34">
+      <c r="G45" s="44">
+        <v>0</v>
+      </c>
+      <c r="H45" s="45">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="23">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="J47" s="26">
+      <c r="J45">
         <f>5*Ref!$B$18</f>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="K47" s="35">
-        <f t="shared" ref="K47:K49" si="24">SUM(B47:I47)</f>
-        <v>2.3711999999999995</v>
-      </c>
-      <c r="L47" s="32">
-        <v>0</v>
-      </c>
-      <c r="M47" s="26">
-        <f>H47*((1-P47)/P47)</f>
-        <v>0</v>
-      </c>
-      <c r="N47" s="26">
-        <v>0</v>
-      </c>
-      <c r="O47" s="26">
+      <c r="K45" s="44">
+        <f t="shared" si="26"/>
+        <v>2.4711999999999996</v>
+      </c>
+      <c r="L45" s="29">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <f t="shared" ref="M45:M46" si="27">H45*((1-P45)/P45)</f>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
         <v>0.49</v>
       </c>
-      <c r="P47" s="26">
+      <c r="P45">
         <v>0.6</v>
       </c>
-      <c r="Q47" s="26">
-        <v>200</v>
-      </c>
-      <c r="R47" s="26">
+      <c r="Q45">
+        <f t="shared" ref="Q45:Q46" si="28">200*0.4</f>
+        <v>80</v>
+      </c>
+      <c r="R45">
         <v>0.04</v>
       </c>
-      <c r="S47" s="26">
-        <v>0</v>
-      </c>
-      <c r="T47" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20">
-      <c r="A48" t="s">
-        <v>170</v>
-      </c>
-      <c r="B48" s="49">
+      <c r="S45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" s="44">
         <v>0.34399999999999997</v>
       </c>
-      <c r="C48" s="49">
+      <c r="C46" s="44">
         <v>0.85899999999999999</v>
       </c>
-      <c r="D48" s="49">
+      <c r="D46" s="44">
         <v>0.96</v>
       </c>
-      <c r="E48" s="26">
+      <c r="E46" s="26">
         <v>0.1</v>
       </c>
-      <c r="F48" s="49">
+      <c r="F46" s="44">
         <v>0.20699999999999999</v>
       </c>
-      <c r="G48" s="49">
-        <v>0</v>
-      </c>
-      <c r="H48" s="50">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="23">
+      <c r="G46" s="44">
+        <v>0</v>
+      </c>
+      <c r="H46" s="45">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="23">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="J48">
+      <c r="J46">
         <f>5*Ref!$B$18</f>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="K48" s="49">
-        <f t="shared" si="24"/>
+      <c r="K46" s="44">
+        <f t="shared" si="26"/>
         <v>2.4711999999999996</v>
       </c>
-      <c r="L48" s="32">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <f t="shared" ref="M48:M49" si="25">H48*((1-P48)/P48)</f>
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
+      <c r="L46" s="29">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
         <v>0.49</v>
       </c>
-      <c r="P48">
+      <c r="P46">
         <v>0.6</v>
       </c>
-      <c r="Q48">
-        <f t="shared" ref="Q48:Q49" si="26">200*0.4</f>
+      <c r="Q46">
+        <f t="shared" si="28"/>
         <v>80</v>
       </c>
-      <c r="R48">
+      <c r="R46">
         <v>0.04</v>
       </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19">
-      <c r="A49" t="s">
-        <v>171</v>
-      </c>
-      <c r="B49" s="49">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="C49" s="49">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="D49" s="49">
-        <v>0.96</v>
-      </c>
-      <c r="E49" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="F49" s="49">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="G49" s="49">
-        <v>0</v>
-      </c>
-      <c r="H49" s="50">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="23">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="J49">
-        <f>5*Ref!$B$18</f>
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="K49" s="49">
-        <f t="shared" si="24"/>
-        <v>2.4711999999999996</v>
-      </c>
-      <c r="L49" s="32">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <v>0.49</v>
-      </c>
-      <c r="P49">
-        <v>0.6</v>
-      </c>
-      <c r="Q49">
-        <f t="shared" si="26"/>
-        <v>80</v>
-      </c>
-      <c r="R49">
-        <v>0.04</v>
-      </c>
-      <c r="S49">
+      <c r="S46">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="U3" r:id="rId1" tooltip="Persistent link using digital object identifier" xr:uid="{BCCCBA4A-641E-DB4C-9FB0-DF832EB2FA2B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D35F07A-1C7A-D64D-B917-0BBB7946121A}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="49" t="s">
         <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" t="s">
         <v>162</v>
       </c>
-      <c r="C1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>167</v>
-      </c>
-      <c r="C2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>73</v>
       </c>
       <c r="B3">
         <v>0.34399999999999997</v>
@@ -7586,29 +7515,29 @@
         <v>2.371</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="B4">
-        <v>0.20300000000000001</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="C4">
         <v>0.49</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E4">
         <v>8.8999999999999999E-3</v>
       </c>
       <c r="F4">
-        <v>2.069</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>2.371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B5">
         <v>0.20300000000000001</v>
@@ -7626,9 +7555,9 @@
         <v>2.069</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B6">
         <v>0.20300000000000001</v>
@@ -7646,9 +7575,9 @@
         <v>2.069</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B7">
         <v>0.20300000000000001</v>
@@ -7663,6 +7592,26 @@
         <v>8.8999999999999999E-3</v>
       </c>
       <c r="F7">
+        <v>2.069</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.49</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="F8">
         <v>2.069</v>
       </c>
     </row>
@@ -7679,26 +7628,26 @@
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -7707,7 +7656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -7719,7 +7668,7 @@
         <v>5.3537967341839917E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -7731,7 +7680,7 @@
         <v>7.1573391630231102E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
@@ -7743,7 +7692,7 @@
         <v>1.2496698492013921E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
@@ -7755,7 +7704,7 @@
         <v>1.963482644775587E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -7767,7 +7716,7 @@
         <v>8.9938431337556905E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
@@ -7779,7 +7728,7 @@
         <v>8.0375122691175155E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
@@ -7792,7 +7741,7 @@
         <v>4.1190030040748338E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
@@ -7804,7 +7753,7 @@
         <v>1.2498170786115822E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
@@ -7816,24 +7765,24 @@
         <v>1.4276255911483892E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="13" t="s">
         <v>19</v>
@@ -7841,7 +7790,7 @@
       <c r="C16" s="13"/>
       <c r="H16" s="23"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>20</v>
       </c>
@@ -7850,7 +7799,7 @@
       </c>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>21</v>
       </c>
@@ -7862,7 +7811,7 @@
       <c r="D18" s="18"/>
       <c r="E18" s="23"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>22</v>
       </c>
@@ -7872,7 +7821,7 @@
       </c>
       <c r="C19" s="7"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>23</v>
       </c>
@@ -7882,7 +7831,7 @@
       </c>
       <c r="E20" s="23"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>25</v>
       </c>
@@ -7891,7 +7840,7 @@
         <v>0.90718581887127947</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H28" t="s">
         <v>28</v>
       </c>
